--- a/投资心得/关于成长股的估值.xlsx
+++ b/投资心得/关于成长股的估值.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zpw/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zpw/Desktop/Financial-market-experience/投资心得/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="当下测算" sheetId="3" r:id="rId1"/>
@@ -56,19 +56,62 @@
     <t>PV 函数语法具有下列参数：</t>
   </si>
   <si>
-    <t>Rate    必需。 各期利率。 例如，如果您获得年利率为 10% 的汽车贷款，并且每月还款一次，则每月的利率为 10%/12（即 0.83%）。 您需要在公式中输入 10%/12（即 0.83%）或 0.0083 作为利率。</t>
+    <t>type    可选。 数字 0 或 1，用以指定各期的付款时间是在期初还是期末。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Nper    必需。 年金的付款总期数。 例如，如果您获得为期四年的汽车贷款，每月还款一次，则贷款期数为 4*12（即 48）期。 您需要在公式中输入 48 作为 nper。</t>
+    <t>Rate    必需。 各期利率（10年国开债利率的两倍）。 例如，如果您获得年利率为 10% 的汽车贷款，并且每月还款一次，则每月的利率为 10%/12（即 0.83%）。 您需要在公式中输入 10%/12（即 0.83%）或 0.0083 作为利率。</t>
+    <rPh sb="19" eb="20">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>guo kai zhai</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>li lü</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>de</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>liang bei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Pmt    必需。 每期的付款金额，在年金周期内不能更改。 通常，pmt 包括本金和利息，但不含其他费用或税金。 例如，对于金额为 ￥100,000、利率为 12% 的四年期汽车贷款，每月付款为 ￥2633.30。 您需要在公式中输入 -2633.30 作为 pmt。 如果省略 pmt，则必须包括 fv 参数。</t>
+    <t>Pmt    必需。 每期的付款金额，在年金周期内不能更改（公司分红）。 通常，pmt 包括本金和利息，但不含其他费用或税金。 例如，对于金额为 ￥100,000、利率为 12% 的四年期汽车贷款，每月付款为 ￥2633.30。 您需要在公式中输入 -2633.30 作为 pmt。 如果省略 pmt，则必须包括 fv 参数。</t>
+    <rPh sb="30" eb="31">
+      <t>gong si</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>fen hong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fv    可选。 未来值，或在最后一次付款后希望得到的现金余额。 如果省略 fv，则假定其值为 0（例如，贷款的未来值是 0）。 例如，如果要在 18 年中为支付某个特殊项目而储蓄 ￥500,000，则 ￥500,000 就是未来值。 然后，您可以对利率进行保守的猜测，并确定每月必须储蓄的金额。 如果省略 fv，则必须包括 pmt 参数。</t>
+    <t>Nper    必需。 年金的付款总期数（公司财年）。 例如，如果您获得为期四年的汽车贷款，每月还款一次，则贷款期数为 4*12（即 48）期。 您需要在公式中输入 48 作为 nper。</t>
+    <rPh sb="21" eb="22">
+      <t>gong si</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>cai nian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>type    可选。 数字 0 或 1，用以指定各期的付款时间是在期初还是期末。</t>
+    <t>fv    可选。 未来值，或在最后一次付款后希望得到的现金余额（公司财年的现金流）。 如果省略 fv，则假定其值为 0（例如，贷款的未来值是 0）。 例如，如果要在 18 年中为支付某个特殊项目而储蓄 ￥500,000，则 ￥500,000 就是未来值。 然后，您可以对利率进行保守的猜测，并确定每月必须储蓄的金额。 如果省略 fv，则必须包括 pmt 参数。</t>
+    <rPh sb="33" eb="34">
+      <t>gong si</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>cai nian</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>de</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>xian jin liu</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +518,7 @@
   <dimension ref="A2:AK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -686,83 +729,83 @@
         <v>-0.94073377234242717</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:Y4" si="2">-PV($D$2,F2,0,F3)</f>
+        <f>-PV($D$2,F2,0,F3)</f>
         <v>-0.88498003042561357</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,G2,0,G3)</f>
         <v>-0.83253060247000343</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,H2,0,H3)</f>
         <v>-0.78318965425211995</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,I2,0,I3)</f>
         <v>-0.73677295790415809</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J4" si="2">-PV($D$2,J2,0,J3)</f>
         <v>0.693107204049067</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,K2,0,K3)</f>
         <v>0.78243522564334933</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,L2,0,L3)</f>
         <v>0.88327588971967941</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,M2,0,M3)</f>
         <v>0.99711295170612924</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,N2,0,N3)</f>
         <v>1.1256213942119992</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,O2,0,O3)</f>
         <v>1.2706920724876758</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,P2,0,P3)</f>
         <v>1.4344595362043375</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,Q2,0,Q3)</f>
         <v>1.61933343691929</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,R2,0,R3)</f>
         <v>1.8280339833519739</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,S2,0,S3)</f>
         <v>2.0636319661546274</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,T2,0,T3)</f>
         <v>2.329593941096475</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,U2,0,U3)</f>
         <v>2.6298332354804983</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,V2,0,V3)</f>
         <v>2.9687675282940718</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,W2,0,W3)</f>
         <v>3.351383851319742</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,X2,0,X3)</f>
         <v>3.7833119676234155</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" si="2"/>
+        <f>-PV($D$2,Y2,0,Y3)</f>
         <v>42.880594448802725</v>
       </c>
       <c r="Z4" s="2"/>
@@ -1073,12 +1116,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -1088,12 +1131,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/投资心得/关于成长股的估值.xlsx
+++ b/投资心得/关于成长股的估值.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>利率</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,6 +114,16 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>纳斯达克估值</t>
+    <rPh sb="0" eb="1">
+      <t>na si da ke</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -149,12 +159,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,6 +214,12 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -515,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AK23"/>
+  <dimension ref="A2:AT38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -526,7 +548,7 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -537,8 +559,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <f>3.15%*2</f>
-        <v>6.3E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -548,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:Y2" si="0">+F2+1</f>
+        <f t="shared" ref="G2:X2" si="0">+F2+1</f>
         <v>3</v>
       </c>
       <c r="H2">
@@ -619,18 +640,18 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Y2">
-        <f t="shared" si="0"/>
+      <c r="AH2">
+        <f>+X2+1</f>
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(4:4)</f>
-        <v>66.462981615670742</v>
+        <v>49.114689360077477</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -706,108 +727,114 @@
         <f t="shared" si="1"/>
         <v>12.839184645488634</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="6">
         <f>X3/(D2+2%)</f>
-        <v>154.68897163239319</v>
-      </c>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
+        <v>135.29172439924798</v>
+      </c>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="E4" s="2">
         <f>-PV($D$2,E2,0,E3)</f>
-        <v>-0.94073377234242717</v>
+        <v>-0.9303190994511118</v>
       </c>
       <c r="F4" s="2">
         <f>-PV($D$2,F2,0,F3)</f>
-        <v>-0.88498003042561357</v>
+        <v>-0.86549362680352748</v>
       </c>
       <c r="G4" s="2">
         <f>-PV($D$2,G2,0,G3)</f>
-        <v>-0.83253060247000343</v>
+        <v>-0.80518525146853426</v>
       </c>
       <c r="H4" s="2">
         <f>-PV($D$2,H2,0,H3)</f>
-        <v>-0.78318965425211995</v>
+        <v>-0.74907921803752375</v>
       </c>
       <c r="I4" s="2">
         <f>-PV($D$2,I2,0,I3)</f>
-        <v>-0.73677295790415809</v>
+        <v>-0.69688270354221216</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ref="J4" si="2">-PV($D$2,J2,0,J3)</f>
-        <v>0.693107204049067</v>
+        <v>0.64832328918244686</v>
       </c>
       <c r="K4" s="2">
-        <f>-PV($D$2,K2,0,K3)</f>
-        <v>0.78243522564334933</v>
+        <f t="shared" ref="K4:AH4" si="3">-PV($D$2,K2,0,K3)</f>
+        <v>0.72377704625447592</v>
       </c>
       <c r="L4" s="2">
-        <f>-PV($D$2,L2,0,L3)</f>
-        <v>0.88327588971967941</v>
+        <f t="shared" si="3"/>
+        <v>0.80801233184981969</v>
       </c>
       <c r="M4" s="2">
-        <f>-PV($D$2,M2,0,M3)</f>
-        <v>0.99711295170612924</v>
+        <f t="shared" si="3"/>
+        <v>0.90205116589430057</v>
       </c>
       <c r="N4" s="2">
-        <f>-PV($D$2,N2,0,N3)</f>
-        <v>1.1256213942119992</v>
+        <f t="shared" si="3"/>
+        <v>1.0070345139763333</v>
       </c>
       <c r="O4" s="2">
-        <f>-PV($D$2,O2,0,O3)</f>
-        <v>1.2706920724876758</v>
+        <f t="shared" si="3"/>
+        <v>1.1242361305903803</v>
       </c>
       <c r="P4" s="2">
-        <f>-PV($D$2,P2,0,P3)</f>
-        <v>1.4344595362043375</v>
+        <f t="shared" si="3"/>
+        <v>1.2550780134974941</v>
       </c>
       <c r="Q4" s="2">
-        <f>-PV($D$2,Q2,0,Q3)</f>
-        <v>1.61933343691929</v>
+        <f t="shared" si="3"/>
+        <v>1.4011476567094547</v>
       </c>
       <c r="R4" s="2">
-        <f>-PV($D$2,R2,0,R3)</f>
-        <v>1.8280339833519739</v>
+        <f t="shared" si="3"/>
+        <v>1.5642173114255704</v>
       </c>
       <c r="S4" s="2">
-        <f>-PV($D$2,S2,0,S3)</f>
-        <v>2.0636319661546274</v>
+        <f t="shared" si="3"/>
+        <v>1.7462654886135311</v>
       </c>
       <c r="T4" s="2">
-        <f>-PV($D$2,T2,0,T3)</f>
-        <v>2.329593941096475</v>
+        <f t="shared" si="3"/>
+        <v>1.9495009641233949</v>
       </c>
       <c r="U4" s="2">
-        <f>-PV($D$2,U2,0,U3)</f>
-        <v>2.6298332354804983</v>
+        <f t="shared" si="3"/>
+        <v>2.1763895775868209</v>
       </c>
       <c r="V4" s="2">
-        <f>-PV($D$2,V2,0,V3)</f>
-        <v>2.9687675282940718</v>
+        <f t="shared" si="3"/>
+        <v>2.4296841502504281</v>
       </c>
       <c r="W4" s="2">
-        <f>-PV($D$2,W2,0,W3)</f>
-        <v>3.351383851319742</v>
+        <f t="shared" si="3"/>
+        <v>2.7124578847339409</v>
       </c>
       <c r="X4" s="2">
-        <f>-PV($D$2,X2,0,X3)</f>
-        <v>3.7833119676234155</v>
-      </c>
-      <c r="Y4" s="2">
-        <f>-PV($D$2,Y2,0,Y3)</f>
-        <v>42.880594448802725</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>3.0281416519496966</v>
+      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -816,12 +843,24 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="AH4" s="2">
+        <f t="shared" si="3"/>
+        <v>29.685332082742296</v>
+      </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -833,8 +872,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <f>2.785%*2</f>
-        <v>5.57E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -844,89 +882,89 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:Y8" si="3">+F8+1</f>
+        <f t="shared" ref="G8:X8" si="4">+F8+1</f>
         <v>3</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="R8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="S8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="T8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="U8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="V8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="W8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="X8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="Y8">
-        <f t="shared" si="3"/>
+      <c r="AH8">
+        <f>+X8+1</f>
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2">
         <f>SUM(10:10)</f>
-        <v>76.121657360340876</v>
+        <v>63.61456696839668</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -947,196 +985,1006 @@
         <v>1</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" ref="K9:X9" si="4">+J9*$B$8</f>
+        <f t="shared" ref="K9:X9" si="5">+J9*$B$8</f>
         <v>1.2</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.44</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.728</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0735999999999999</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4883199999999999</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9859839999999997</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5831807999999996</v>
       </c>
       <c r="R9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2998169599999994</v>
       </c>
       <c r="S9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1597803519999994</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1917364223999991</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4300837068799988</v>
       </c>
       <c r="V9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.9161004482559978</v>
       </c>
       <c r="W9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.699320537907196</v>
       </c>
       <c r="X9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.839184645488634</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="6">
         <f>X9/($D$2+2%)</f>
-        <v>154.68897163239319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+        <v>135.29172439924798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="E10" s="2">
         <f>-PV($D$8,E8,0,E9)</f>
-        <v>-0.94723879890120288</v>
+        <v>-0.94268476621417796</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ref="F10:Y10" si="5">-PV($D$8,F8,0,F9)</f>
-        <v>-0.89726134214379349</v>
+        <f t="shared" ref="F10:AH10" si="6">-PV($D$8,F8,0,F9)</f>
+        <v>-0.88865456845227941</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="5"/>
-        <v>-0.84992075603276818</v>
+        <f t="shared" si="6"/>
+        <v>-0.83772112410659827</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="5"/>
-        <v>-0.80507791610568158</v>
+        <f t="shared" si="6"/>
+        <v>-0.78970694203110703</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="5"/>
-        <v>-0.76260103827382919</v>
+        <f t="shared" si="6"/>
+        <v>-0.74444470402630747</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="5"/>
-        <v>0.72236529153531226</v>
+        <f t="shared" si="6"/>
+        <v>0.70177668177442265</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="5"/>
-        <v>0.82110291734619167</v>
+        <f t="shared" si="6"/>
+        <v>0.79386502463169983</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="5"/>
-        <v>0.93333664944153627</v>
+        <f t="shared" si="6"/>
+        <v>0.89803735818065589</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="5"/>
-        <v>1.0609112241449687</v>
+        <f t="shared" si="6"/>
+        <v>1.0158793644577555</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="5"/>
-        <v>1.2059235284398619</v>
+        <f t="shared" si="6"/>
+        <v>1.1491848014228003</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="5"/>
-        <v>1.3707570655752905</v>
+        <f t="shared" si="6"/>
+        <v>1.2999828070393671</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="5"/>
-        <v>1.5581211316570507</v>
+        <f t="shared" si="6"/>
+        <v>1.4705687862436279</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="5"/>
-        <v>1.7710953471520889</v>
+        <f t="shared" si="6"/>
+        <v>1.6635393509543299</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="5"/>
-        <v>2.0131802752510244</v>
+        <f t="shared" si="6"/>
+        <v>1.8818318449709617</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="5"/>
-        <v>2.2883549590804479</v>
+        <f t="shared" si="6"/>
+        <v>2.1287690553970156</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="5"/>
-        <v>2.6011423234787694</v>
+        <f t="shared" si="6"/>
+        <v>2.4081097911730946</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="5"/>
-        <v>2.9566835163157368</v>
+        <f t="shared" si="6"/>
+        <v>2.724106098612098</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="5"/>
-        <v>3.3608224112710841</v>
+        <f t="shared" si="6"/>
+        <v>3.0815679848553144</v>
       </c>
       <c r="W10" s="2">
-        <f t="shared" si="5"/>
-        <v>3.8202016610071987</v>
+        <f t="shared" si="6"/>
+        <v>3.4859366344517131</v>
       </c>
       <c r="X10" s="2">
-        <f t="shared" si="5"/>
-        <v>4.3423718795194066</v>
-      </c>
-      <c r="Y10" s="2">
-        <f t="shared" si="5"/>
-        <v>49.557387030582184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>3.9433672335426611</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2">
+        <f t="shared" si="6"/>
+        <v>39.171256255519637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C13" s="5">
         <f>+D9/D3-1</f>
-        <v>0.14532414149763029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+        <v>0.29522486647559498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1.2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f>+E27+1</f>
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27" si="7">+F27+1</f>
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27" si="8">+G27+1</f>
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27" si="9">+H27+1</f>
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27" si="10">+I27+1</f>
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27" si="11">+J27+1</f>
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ref="L27" si="12">+K27+1</f>
+        <v>8</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27" si="13">+L27+1</f>
+        <v>9</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27" si="14">+M27+1</f>
+        <v>10</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27" si="15">+N27+1</f>
+        <v>11</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ref="P27" si="16">+O27+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ref="Q27" si="17">+P27+1</f>
+        <v>13</v>
+      </c>
+      <c r="R27">
+        <f t="shared" ref="R27" si="18">+Q27+1</f>
+        <v>14</v>
+      </c>
+      <c r="S27">
+        <f t="shared" ref="S27" si="19">+R27+1</f>
+        <v>15</v>
+      </c>
+      <c r="T27">
+        <f t="shared" ref="T27" si="20">+S27+1</f>
+        <v>16</v>
+      </c>
+      <c r="U27">
+        <f t="shared" ref="U27" si="21">+T27+1</f>
+        <v>17</v>
+      </c>
+      <c r="V27">
+        <f t="shared" ref="V27" si="22">+U27+1</f>
+        <v>18</v>
+      </c>
+      <c r="W27">
+        <f t="shared" ref="W27" si="23">+V27+1</f>
+        <v>19</v>
+      </c>
+      <c r="X27">
+        <f t="shared" ref="X27:AG27" si="24">+W27+1</f>
+        <v>20</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="24"/>
+        <v>22</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="24"/>
+        <v>23</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="24"/>
+        <v>24</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="24"/>
+        <v>26</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="24"/>
+        <v>27</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="24"/>
+        <v>29</v>
+      </c>
+      <c r="AH27">
+        <f>+AG27+1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <f>SUM(29:29)</f>
+        <v>148.57836998576403</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" ref="K28" si="25">+J28*$B$2</f>
+        <v>1.2</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" ref="L28" si="26">+K28*$B$2</f>
+        <v>1.44</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" ref="M28" si="27">+L28*$B$2</f>
+        <v>1.728</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" ref="N28" si="28">+M28*$B$2</f>
+        <v>2.0735999999999999</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" ref="O28" si="29">+N28*$B$2</f>
+        <v>2.4883199999999999</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" ref="P28" si="30">+O28*$B$2</f>
+        <v>2.9859839999999997</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" ref="Q28" si="31">+P28*$B$2</f>
+        <v>3.5831807999999996</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" ref="R28" si="32">+Q28*$B$2</f>
+        <v>4.2998169599999994</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" ref="S28" si="33">+R28*$B$2</f>
+        <v>5.1597803519999994</v>
+      </c>
+      <c r="T28" s="3">
+        <f t="shared" ref="T28" si="34">+S28*$B$2</f>
+        <v>6.1917364223999991</v>
+      </c>
+      <c r="U28" s="3">
+        <f t="shared" ref="U28" si="35">+T28*$B$2</f>
+        <v>7.4300837068799988</v>
+      </c>
+      <c r="V28" s="3">
+        <f t="shared" ref="V28" si="36">+U28*$B$2</f>
+        <v>8.9161004482559978</v>
+      </c>
+      <c r="W28" s="3">
+        <f t="shared" ref="W28" si="37">+V28*$B$2</f>
+        <v>10.699320537907196</v>
+      </c>
+      <c r="X28" s="3">
+        <f t="shared" ref="X28:AG28" si="38">+W28*$B$2</f>
+        <v>12.839184645488634</v>
+      </c>
+      <c r="Y28" s="3">
+        <f t="shared" si="38"/>
+        <v>15.407021574586361</v>
+      </c>
+      <c r="Z28" s="3">
+        <f t="shared" si="38"/>
+        <v>18.488425889503631</v>
+      </c>
+      <c r="AA28" s="3">
+        <f t="shared" si="38"/>
+        <v>22.186111067404358</v>
+      </c>
+      <c r="AB28" s="3">
+        <f t="shared" si="38"/>
+        <v>26.62333328088523</v>
+      </c>
+      <c r="AC28" s="3">
+        <f t="shared" si="38"/>
+        <v>31.947999937062274</v>
+      </c>
+      <c r="AD28" s="3">
+        <f t="shared" si="38"/>
+        <v>38.337599924474731</v>
+      </c>
+      <c r="AE28" s="3">
+        <f t="shared" si="38"/>
+        <v>46.005119909369675</v>
+      </c>
+      <c r="AF28" s="3">
+        <f t="shared" si="38"/>
+        <v>55.206143891243606</v>
+      </c>
+      <c r="AG28" s="3">
+        <f t="shared" si="38"/>
+        <v>66.247372669492322</v>
+      </c>
+      <c r="AH28" s="6">
+        <f>AG28/(D27+2%)</f>
+        <v>698.07558134343856</v>
+      </c>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="6"/>
+      <c r="AT28" s="6"/>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="E29" s="2">
+        <f>-PV($D$2,E27,0,E28)</f>
+        <v>-0.9303190994511118</v>
+      </c>
+      <c r="F29" s="2">
+        <f>-PV($D$2,F27,0,F28)</f>
+        <v>-0.86549362680352748</v>
+      </c>
+      <c r="G29" s="2">
+        <f>-PV($D$2,G27,0,G28)</f>
+        <v>-0.80518525146853426</v>
+      </c>
+      <c r="H29" s="2">
+        <f>-PV($D$2,H27,0,H28)</f>
+        <v>-0.74907921803752375</v>
+      </c>
+      <c r="I29" s="2">
+        <f>-PV($D$2,I27,0,I28)</f>
+        <v>-0.69688270354221216</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" ref="J29" si="39">-PV($D$2,J27,0,J28)</f>
+        <v>0.64832328918244686</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" ref="K29" si="40">-PV($D$2,K27,0,K28)</f>
+        <v>0.72377704625447592</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" ref="L29" si="41">-PV($D$2,L27,0,L28)</f>
+        <v>0.80801233184981969</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" ref="M29" si="42">-PV($D$2,M27,0,M28)</f>
+        <v>0.90205116589430057</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" ref="N29" si="43">-PV($D$2,N27,0,N28)</f>
+        <v>1.0070345139763333</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" ref="O29" si="44">-PV($D$2,O27,0,O28)</f>
+        <v>1.1242361305903803</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" ref="P29" si="45">-PV($D$2,P27,0,P28)</f>
+        <v>1.2550780134974941</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" ref="Q29" si="46">-PV($D$2,Q27,0,Q28)</f>
+        <v>1.4011476567094547</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" ref="R29" si="47">-PV($D$2,R27,0,R28)</f>
+        <v>1.5642173114255704</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" ref="S29" si="48">-PV($D$2,S27,0,S28)</f>
+        <v>1.7462654886135311</v>
+      </c>
+      <c r="T29" s="2">
+        <f t="shared" ref="T29" si="49">-PV($D$2,T27,0,T28)</f>
+        <v>1.9495009641233949</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" ref="U29" si="50">-PV($D$2,U27,0,U28)</f>
+        <v>2.1763895775868209</v>
+      </c>
+      <c r="V29" s="2">
+        <f t="shared" ref="V29" si="51">-PV($D$2,V27,0,V28)</f>
+        <v>2.4296841502504281</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" ref="W29" si="52">-PV($D$2,W27,0,W28)</f>
+        <v>2.7124578847339409</v>
+      </c>
+      <c r="X29" s="2">
+        <f t="shared" ref="X29:AG29" si="53">-PV($D$2,X27,0,X28)</f>
+        <v>3.0281416519496966</v>
+      </c>
+      <c r="Y29" s="2">
+        <f t="shared" si="53"/>
+        <v>3.3805656175826928</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="53"/>
+        <v>3.7740057131819058</v>
+      </c>
+      <c r="AA29" s="2">
+        <f t="shared" si="53"/>
+        <v>4.2132355156928893</v>
+      </c>
+      <c r="AB29" s="2">
+        <f t="shared" si="53"/>
+        <v>4.7035841648818195</v>
+      </c>
+      <c r="AC29" s="2">
+        <f t="shared" si="53"/>
+        <v>5.2510010213584364</v>
+      </c>
+      <c r="AD29" s="2">
+        <f t="shared" si="53"/>
+        <v>5.8621278496884583</v>
+      </c>
+      <c r="AE29" s="2">
+        <f t="shared" si="53"/>
+        <v>6.5443794023873378</v>
+      </c>
+      <c r="AF29" s="2">
+        <f t="shared" si="53"/>
+        <v>7.306033382514471</v>
+      </c>
+      <c r="AG29" s="2">
+        <f t="shared" si="53"/>
+        <v>8.1563308763767459</v>
+      </c>
+      <c r="AH29" s="2">
+        <f>-PV($D$2,AH27,0,AH28)</f>
+        <v>79.957749164764095</v>
+      </c>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <f>B27</f>
+        <v>1.2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>6.08E-2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f>+E33+1</f>
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33" si="54">+F33+1</f>
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33" si="55">+G33+1</f>
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33" si="56">+H33+1</f>
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33" si="57">+I33+1</f>
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33" si="58">+J33+1</f>
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ref="L33" si="59">+K33+1</f>
+        <v>8</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33" si="60">+L33+1</f>
+        <v>9</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33" si="61">+M33+1</f>
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ref="O33" si="62">+N33+1</f>
+        <v>11</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ref="P33" si="63">+O33+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ref="Q33" si="64">+P33+1</f>
+        <v>13</v>
+      </c>
+      <c r="R33">
+        <f t="shared" ref="R33" si="65">+Q33+1</f>
+        <v>14</v>
+      </c>
+      <c r="S33">
+        <f t="shared" ref="S33" si="66">+R33+1</f>
+        <v>15</v>
+      </c>
+      <c r="T33">
+        <f t="shared" ref="T33" si="67">+S33+1</f>
+        <v>16</v>
+      </c>
+      <c r="U33">
+        <f t="shared" ref="U33" si="68">+T33+1</f>
+        <v>17</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ref="V33" si="69">+U33+1</f>
+        <v>18</v>
+      </c>
+      <c r="W33">
+        <f t="shared" ref="W33" si="70">+V33+1</f>
+        <v>19</v>
+      </c>
+      <c r="X33">
+        <f t="shared" ref="X33:AG33" si="71">+W33+1</f>
+        <v>20</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="71"/>
+        <v>21</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="71"/>
+        <v>22</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="71"/>
+        <v>23</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="71"/>
+        <v>24</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="71"/>
+        <v>25</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="71"/>
+        <v>26</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="71"/>
+        <v>27</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="71"/>
+        <v>28</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="71"/>
+        <v>29</v>
+      </c>
+      <c r="AH33">
+        <f>+AG33+1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <f>SUM(35:35)</f>
+        <v>212.38987295921379</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" ref="K34" si="72">+J34*$B$8</f>
+        <v>1.2</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" ref="L34" si="73">+K34*$B$8</f>
+        <v>1.44</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" ref="M34" si="74">+L34*$B$8</f>
+        <v>1.728</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" ref="N34" si="75">+M34*$B$8</f>
+        <v>2.0735999999999999</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" ref="O34" si="76">+N34*$B$8</f>
+        <v>2.4883199999999999</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" ref="P34" si="77">+O34*$B$8</f>
+        <v>2.9859839999999997</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" ref="Q34" si="78">+P34*$B$8</f>
+        <v>3.5831807999999996</v>
+      </c>
+      <c r="R34" s="3">
+        <f t="shared" ref="R34" si="79">+Q34*$B$8</f>
+        <v>4.2998169599999994</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" ref="S34" si="80">+R34*$B$8</f>
+        <v>5.1597803519999994</v>
+      </c>
+      <c r="T34" s="3">
+        <f t="shared" ref="T34" si="81">+S34*$B$8</f>
+        <v>6.1917364223999991</v>
+      </c>
+      <c r="U34" s="3">
+        <f t="shared" ref="U34" si="82">+T34*$B$8</f>
+        <v>7.4300837068799988</v>
+      </c>
+      <c r="V34" s="3">
+        <f t="shared" ref="V34" si="83">+U34*$B$8</f>
+        <v>8.9161004482559978</v>
+      </c>
+      <c r="W34" s="3">
+        <f t="shared" ref="W34" si="84">+V34*$B$8</f>
+        <v>10.699320537907196</v>
+      </c>
+      <c r="X34" s="3">
+        <f t="shared" ref="X34:AG34" si="85">+W34*$B$8</f>
+        <v>12.839184645488634</v>
+      </c>
+      <c r="Y34" s="3">
+        <f t="shared" si="85"/>
+        <v>15.407021574586361</v>
+      </c>
+      <c r="Z34" s="3">
+        <f t="shared" si="85"/>
+        <v>18.488425889503631</v>
+      </c>
+      <c r="AA34" s="3">
+        <f t="shared" si="85"/>
+        <v>22.186111067404358</v>
+      </c>
+      <c r="AB34" s="3">
+        <f t="shared" si="85"/>
+        <v>26.62333328088523</v>
+      </c>
+      <c r="AC34" s="3">
+        <f t="shared" si="85"/>
+        <v>31.947999937062274</v>
+      </c>
+      <c r="AD34" s="3">
+        <f t="shared" si="85"/>
+        <v>38.337599924474731</v>
+      </c>
+      <c r="AE34" s="3">
+        <f t="shared" si="85"/>
+        <v>46.005119909369675</v>
+      </c>
+      <c r="AF34" s="3">
+        <f t="shared" si="85"/>
+        <v>55.206143891243606</v>
+      </c>
+      <c r="AG34" s="3">
+        <f t="shared" si="85"/>
+        <v>66.247372669492322</v>
+      </c>
+      <c r="AH34" s="6">
+        <f>AG34/($D$2+2%)</f>
+        <v>698.07558134343856</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="E35" s="2">
+        <f>-PV($D$8,E33,0,E34)</f>
+        <v>-0.94268476621417796</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" ref="F35:AH35" si="86">-PV($D$8,F33,0,F34)</f>
+        <v>-0.88865456845227941</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="86"/>
+        <v>-0.83772112410659827</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="86"/>
+        <v>-0.78970694203110703</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="86"/>
+        <v>-0.74444470402630747</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="86"/>
+        <v>0.70177668177442265</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="86"/>
+        <v>0.79386502463169983</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="86"/>
+        <v>0.89803735818065589</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="86"/>
+        <v>1.0158793644577555</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="86"/>
+        <v>1.1491848014228003</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="86"/>
+        <v>1.2999828070393671</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="86"/>
+        <v>1.4705687862436279</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="86"/>
+        <v>1.6635393509543299</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="86"/>
+        <v>1.8818318449709617</v>
+      </c>
+      <c r="S35" s="2">
+        <f t="shared" si="86"/>
+        <v>2.1287690553970156</v>
+      </c>
+      <c r="T35" s="2">
+        <f t="shared" si="86"/>
+        <v>2.4081097911730946</v>
+      </c>
+      <c r="U35" s="2">
+        <f t="shared" si="86"/>
+        <v>2.724106098612098</v>
+      </c>
+      <c r="V35" s="2">
+        <f t="shared" si="86"/>
+        <v>3.0815679848553144</v>
+      </c>
+      <c r="W35" s="2">
+        <f t="shared" si="86"/>
+        <v>3.4859366344517131</v>
+      </c>
+      <c r="X35" s="2">
+        <f t="shared" si="86"/>
+        <v>3.9433672335426611</v>
+      </c>
+      <c r="Y35" s="2">
+        <f t="shared" ref="Y35:AG35" si="87">-PV($D$8,Y33,0,Y34)</f>
+        <v>4.4608226623785763</v>
+      </c>
+      <c r="Z35" s="2">
+        <f t="shared" si="87"/>
+        <v>5.0461794823287054</v>
+      </c>
+      <c r="AA35" s="2">
+        <f t="shared" si="87"/>
+        <v>5.7083478306885809</v>
+      </c>
+      <c r="AB35" s="2">
+        <f t="shared" si="87"/>
+        <v>6.4574070482902499</v>
+      </c>
+      <c r="AC35" s="2">
+        <f t="shared" si="87"/>
+        <v>7.3047591044007341</v>
+      </c>
+      <c r="AD35" s="2">
+        <f t="shared" si="87"/>
+        <v>8.263302154299474</v>
+      </c>
+      <c r="AE35" s="2">
+        <f t="shared" si="87"/>
+        <v>9.3476268713794983</v>
+      </c>
+      <c r="AF35" s="2">
+        <f t="shared" si="87"/>
+        <v>10.574238542284498</v>
+      </c>
+      <c r="AG35" s="2">
+        <f t="shared" si="87"/>
+        <v>11.961808305751692</v>
+      </c>
+      <c r="AH35" s="2">
+        <f t="shared" si="86"/>
+        <v>118.82207024453473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C38" s="5">
+        <f>+D34/D28-1</f>
+        <v>0.42948043500250965</v>
       </c>
     </row>
   </sheetData>

--- a/投资心得/关于成长股的估值.xlsx
+++ b/投资心得/关于成长股的估值.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="16040" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="当下测算" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>利率</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,12 +115,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>纳斯达克估值</t>
+    <t>增长率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增长率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增长率</t>
+    <rPh sb="0" eb="1">
+      <t>zeng zhang l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳斯达克估值（现金流久期30年）</t>
     <rPh sb="0" eb="1">
       <t>na si da ke</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>gu zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian jin liu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiu qi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行估值（现金流久期5年）</t>
+    <rPh sb="0" eb="1">
+      <t>gong shang yin hang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian jin liu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiu qi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nian</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -159,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,6 +277,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -537,15 +597,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AT38"/>
+  <dimension ref="A2:AT71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:46" x14ac:dyDescent="0.2">
@@ -1080,7 +1141,7 @@
         <v>0.70177668177442265</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="6"/>
+        <f>-PV($D$8,K8,0,K9)</f>
         <v>0.79386502463169983</v>
       </c>
       <c r="L10" s="2">
@@ -1088,7 +1149,7 @@
         <v>0.89803735818065589</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="6"/>
+        <f>-PV($D$8,M8,0,M9)</f>
         <v>1.0158793644577555</v>
       </c>
       <c r="N10" s="2">
@@ -1195,796 +1256,1379 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="25" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:46" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B28">
+        <v>1.2</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1.9595999999999999E-2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f>+E28+1</f>
         <v>2</v>
       </c>
-      <c r="B27">
-        <v>1.2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>7.4899999999999994E-2</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <f>+E27+1</f>
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ref="G27" si="7">+F27+1</f>
+      <c r="G28">
+        <f t="shared" ref="G28" si="7">+F28+1</f>
         <v>3</v>
       </c>
-      <c r="H27">
-        <f t="shared" ref="H27" si="8">+G27+1</f>
+      <c r="H28">
+        <f t="shared" ref="H28" si="8">+G28+1</f>
         <v>4</v>
       </c>
-      <c r="I27">
-        <f t="shared" ref="I27" si="9">+H27+1</f>
+      <c r="I28">
+        <f t="shared" ref="I28" si="9">+H28+1</f>
         <v>5</v>
       </c>
-      <c r="J27">
-        <f t="shared" ref="J27" si="10">+I27+1</f>
+      <c r="J28">
+        <f t="shared" ref="J28" si="10">+I28+1</f>
         <v>6</v>
       </c>
-      <c r="K27">
-        <f t="shared" ref="K27" si="11">+J27+1</f>
+      <c r="K28">
+        <f t="shared" ref="K28" si="11">+J28+1</f>
         <v>7</v>
       </c>
-      <c r="L27">
-        <f t="shared" ref="L27" si="12">+K27+1</f>
+      <c r="L28">
+        <f t="shared" ref="L28" si="12">+K28+1</f>
         <v>8</v>
       </c>
-      <c r="M27">
-        <f t="shared" ref="M27" si="13">+L27+1</f>
+      <c r="M28">
+        <f t="shared" ref="M28" si="13">+L28+1</f>
         <v>9</v>
       </c>
-      <c r="N27">
-        <f t="shared" ref="N27" si="14">+M27+1</f>
+      <c r="N28">
+        <f t="shared" ref="N28" si="14">+M28+1</f>
         <v>10</v>
       </c>
-      <c r="O27">
-        <f t="shared" ref="O27" si="15">+N27+1</f>
+      <c r="O28">
+        <f t="shared" ref="O28" si="15">+N28+1</f>
         <v>11</v>
       </c>
-      <c r="P27">
-        <f t="shared" ref="P27" si="16">+O27+1</f>
+      <c r="P28">
+        <f t="shared" ref="P28" si="16">+O28+1</f>
         <v>12</v>
       </c>
-      <c r="Q27">
-        <f t="shared" ref="Q27" si="17">+P27+1</f>
+      <c r="Q28">
+        <f t="shared" ref="Q28" si="17">+P28+1</f>
         <v>13</v>
       </c>
-      <c r="R27">
-        <f t="shared" ref="R27" si="18">+Q27+1</f>
+      <c r="R28">
+        <f t="shared" ref="R28" si="18">+Q28+1</f>
         <v>14</v>
       </c>
-      <c r="S27">
-        <f t="shared" ref="S27" si="19">+R27+1</f>
+      <c r="S28">
+        <f t="shared" ref="S28" si="19">+R28+1</f>
         <v>15</v>
       </c>
-      <c r="T27">
-        <f t="shared" ref="T27" si="20">+S27+1</f>
+      <c r="T28">
+        <f t="shared" ref="T28" si="20">+S28+1</f>
         <v>16</v>
       </c>
-      <c r="U27">
-        <f t="shared" ref="U27" si="21">+T27+1</f>
+      <c r="U28">
+        <f t="shared" ref="U28" si="21">+T28+1</f>
         <v>17</v>
       </c>
-      <c r="V27">
-        <f t="shared" ref="V27" si="22">+U27+1</f>
+      <c r="V28">
+        <f t="shared" ref="V28" si="22">+U28+1</f>
         <v>18</v>
       </c>
-      <c r="W27">
-        <f t="shared" ref="W27" si="23">+V27+1</f>
+      <c r="W28">
+        <f t="shared" ref="W28" si="23">+V28+1</f>
         <v>19</v>
       </c>
-      <c r="X27">
-        <f t="shared" ref="X27:AG27" si="24">+W27+1</f>
+      <c r="X28">
+        <f t="shared" ref="X28:AG28" si="24">+W28+1</f>
         <v>20</v>
       </c>
-      <c r="Y27">
+      <c r="Y28">
         <f t="shared" si="24"/>
         <v>21</v>
       </c>
-      <c r="Z27">
+      <c r="Z28">
         <f t="shared" si="24"/>
         <v>22</v>
       </c>
-      <c r="AA27">
+      <c r="AA28">
         <f t="shared" si="24"/>
         <v>23</v>
       </c>
-      <c r="AB27">
+      <c r="AB28">
         <f t="shared" si="24"/>
         <v>24</v>
       </c>
-      <c r="AC27">
+      <c r="AC28">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="AD27">
+      <c r="AD28">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="AE27">
+      <c r="AE28">
         <f t="shared" si="24"/>
         <v>27</v>
       </c>
-      <c r="AF27">
+      <c r="AF28">
         <f t="shared" si="24"/>
         <v>28</v>
       </c>
-      <c r="AG27">
+      <c r="AG28">
         <f t="shared" si="24"/>
         <v>29</v>
       </c>
-      <c r="AH27">
-        <f>+AG27+1</f>
+      <c r="AH28">
+        <f>+AG28+1</f>
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="C29" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="2">
-        <f>SUM(29:29)</f>
-        <v>148.57836998576403</v>
-      </c>
-      <c r="E28">
+      <c r="D29" s="2">
+        <f>SUM(30:30)</f>
+        <v>1175.9618740700289</v>
+      </c>
+      <c r="E29">
         <v>-1</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <v>-1</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="3">
         <v>-1</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H29" s="3">
         <v>-1</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I29" s="3">
         <v>-1</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J29" s="3">
         <v>1</v>
       </c>
-      <c r="K28" s="3">
-        <f t="shared" ref="K28" si="25">+J28*$B$2</f>
+      <c r="K29" s="3">
+        <f>+J29*$B$2</f>
         <v>1.2</v>
       </c>
-      <c r="L28" s="3">
-        <f t="shared" ref="L28" si="26">+K28*$B$2</f>
+      <c r="L29" s="3">
+        <f t="shared" ref="L29" si="25">+K29*$B$2</f>
         <v>1.44</v>
       </c>
-      <c r="M28" s="3">
-        <f t="shared" ref="M28" si="27">+L28*$B$2</f>
+      <c r="M29" s="3">
+        <f t="shared" ref="M29" si="26">+L29*$B$2</f>
         <v>1.728</v>
       </c>
-      <c r="N28" s="3">
-        <f t="shared" ref="N28" si="28">+M28*$B$2</f>
+      <c r="N29" s="3">
+        <f t="shared" ref="N29" si="27">+M29*$B$2</f>
         <v>2.0735999999999999</v>
       </c>
-      <c r="O28" s="3">
-        <f t="shared" ref="O28" si="29">+N28*$B$2</f>
+      <c r="O29" s="3">
+        <f t="shared" ref="O29" si="28">+N29*$B$2</f>
         <v>2.4883199999999999</v>
       </c>
-      <c r="P28" s="3">
-        <f t="shared" ref="P28" si="30">+O28*$B$2</f>
+      <c r="P29" s="3">
+        <f t="shared" ref="P29" si="29">+O29*$B$2</f>
         <v>2.9859839999999997</v>
       </c>
-      <c r="Q28" s="3">
-        <f t="shared" ref="Q28" si="31">+P28*$B$2</f>
+      <c r="Q29" s="3">
+        <f t="shared" ref="Q29" si="30">+P29*$B$2</f>
         <v>3.5831807999999996</v>
       </c>
-      <c r="R28" s="3">
-        <f t="shared" ref="R28" si="32">+Q28*$B$2</f>
+      <c r="R29" s="3">
+        <f t="shared" ref="R29" si="31">+Q29*$B$2</f>
         <v>4.2998169599999994</v>
       </c>
-      <c r="S28" s="3">
-        <f t="shared" ref="S28" si="33">+R28*$B$2</f>
+      <c r="S29" s="3">
+        <f t="shared" ref="S29" si="32">+R29*$B$2</f>
         <v>5.1597803519999994</v>
       </c>
-      <c r="T28" s="3">
-        <f t="shared" ref="T28" si="34">+S28*$B$2</f>
+      <c r="T29" s="3">
+        <f t="shared" ref="T29" si="33">+S29*$B$2</f>
         <v>6.1917364223999991</v>
       </c>
-      <c r="U28" s="3">
-        <f t="shared" ref="U28" si="35">+T28*$B$2</f>
+      <c r="U29" s="3">
+        <f t="shared" ref="U29" si="34">+T29*$B$2</f>
         <v>7.4300837068799988</v>
       </c>
-      <c r="V28" s="3">
-        <f t="shared" ref="V28" si="36">+U28*$B$2</f>
+      <c r="V29" s="3">
+        <f t="shared" ref="V29" si="35">+U29*$B$2</f>
         <v>8.9161004482559978</v>
       </c>
-      <c r="W28" s="3">
-        <f t="shared" ref="W28" si="37">+V28*$B$2</f>
+      <c r="W29" s="3">
+        <f t="shared" ref="W29" si="36">+V29*$B$2</f>
         <v>10.699320537907196</v>
       </c>
-      <c r="X28" s="3">
-        <f t="shared" ref="X28:AG28" si="38">+W28*$B$2</f>
+      <c r="X29" s="3">
+        <f t="shared" ref="X29:AG29" si="37">+W29*$B$2</f>
         <v>12.839184645488634</v>
       </c>
-      <c r="Y28" s="3">
+      <c r="Y29" s="3">
+        <f t="shared" si="37"/>
+        <v>15.407021574586361</v>
+      </c>
+      <c r="Z29" s="3">
+        <f t="shared" si="37"/>
+        <v>18.488425889503631</v>
+      </c>
+      <c r="AA29" s="3">
+        <f t="shared" si="37"/>
+        <v>22.186111067404358</v>
+      </c>
+      <c r="AB29" s="3">
+        <f t="shared" si="37"/>
+        <v>26.62333328088523</v>
+      </c>
+      <c r="AC29" s="3">
+        <f t="shared" si="37"/>
+        <v>31.947999937062274</v>
+      </c>
+      <c r="AD29" s="3">
+        <f t="shared" si="37"/>
+        <v>38.337599924474731</v>
+      </c>
+      <c r="AE29" s="3">
+        <f t="shared" si="37"/>
+        <v>46.005119909369675</v>
+      </c>
+      <c r="AF29" s="3">
+        <f t="shared" si="37"/>
+        <v>55.206143891243606</v>
+      </c>
+      <c r="AG29" s="3">
+        <f t="shared" si="37"/>
+        <v>66.247372669492322</v>
+      </c>
+      <c r="AH29" s="6">
+        <f>AG29/(D28+2%)</f>
+        <v>1673.0824494770261</v>
+      </c>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="6"/>
+      <c r="AT29" s="6"/>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="E30" s="2">
+        <f>-PV($D$28,E28,0,E29)</f>
+        <v>-0.9807806229133893</v>
+      </c>
+      <c r="F30" s="2">
+        <f>-PV($D$28,F28,0,F29)</f>
+        <v>-0.9619306302823758</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" ref="F30:AG30" si="38">-PV($D$28,G28,0,G29)</f>
+        <v>-0.94344292276781772</v>
+      </c>
+      <c r="H30" s="2">
         <f t="shared" si="38"/>
+        <v>-0.92531053747544878</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="38"/>
+        <v>-0.9075266453334937</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="38"/>
+        <v>0.89008454852068231</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="38"/>
+        <v>1.0475732135324374</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="38"/>
+        <v>1.2329274106988697</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="38"/>
+        <v>1.4510775766466757</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="38"/>
+        <v>1.7078265234230132</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="38"/>
+        <v>2.010003793764997</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="38"/>
+        <v>2.365647327488531</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="38"/>
+        <v>2.7842172713371154</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="38"/>
+        <v>3.276847619649879</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" si="38"/>
+        <v>3.8566423795109586</v>
+      </c>
+      <c r="T30" s="2">
+        <f t="shared" si="38"/>
+        <v>4.5390241383971208</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" si="38"/>
+        <v>5.342144306251245</v>
+      </c>
+      <c r="V30" s="2">
+        <f t="shared" si="38"/>
+        <v>6.2873659444539731</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" si="38"/>
+        <v>7.3998320249831968</v>
+      </c>
+      <c r="X30" s="2">
+        <f t="shared" si="38"/>
+        <v>8.709134235500958</v>
+      </c>
+      <c r="Y30" s="2">
+        <f t="shared" si="38"/>
+        <v>10.250100120637144</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="38"/>
+        <v>12.063719497491723</v>
+      </c>
+      <c r="AA30" s="2">
+        <f t="shared" si="38"/>
+        <v>14.198234788082802</v>
+      </c>
+      <c r="AB30" s="2">
+        <f t="shared" si="38"/>
+        <v>16.710424271671684</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" si="38"/>
+        <v>19.667112391580609</v>
+      </c>
+      <c r="AD30" s="2">
+        <f t="shared" si="38"/>
+        <v>23.146947290786478</v>
+      </c>
+      <c r="AE30" s="2">
+        <f t="shared" si="38"/>
+        <v>27.242492858881139</v>
+      </c>
+      <c r="AF30" s="2">
+        <f t="shared" si="38"/>
+        <v>32.062690939016399</v>
+      </c>
+      <c r="AG30" s="2">
+        <f t="shared" si="38"/>
+        <v>37.735759189737578</v>
+      </c>
+      <c r="AH30" s="2">
+        <f>-PV($D$28,AH28,0,AH29)</f>
+        <v>934.7030357667561</v>
+      </c>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <f>B28</f>
+        <v>1.2</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1.703E-2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f>+E34+1</f>
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34" si="39">+F34+1</f>
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34" si="40">+G34+1</f>
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34" si="41">+H34+1</f>
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34" si="42">+I34+1</f>
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ref="K34" si="43">+J34+1</f>
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34" si="44">+K34+1</f>
+        <v>8</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ref="M34" si="45">+L34+1</f>
+        <v>9</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34" si="46">+M34+1</f>
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ref="O34" si="47">+N34+1</f>
+        <v>11</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34" si="48">+O34+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ref="Q34" si="49">+P34+1</f>
+        <v>13</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ref="R34" si="50">+Q34+1</f>
+        <v>14</v>
+      </c>
+      <c r="S34">
+        <f t="shared" ref="S34" si="51">+R34+1</f>
+        <v>15</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ref="T34" si="52">+S34+1</f>
+        <v>16</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ref="U34" si="53">+T34+1</f>
+        <v>17</v>
+      </c>
+      <c r="V34">
+        <f t="shared" ref="V34" si="54">+U34+1</f>
+        <v>18</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34" si="55">+V34+1</f>
+        <v>19</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:AG34" si="56">+W34+1</f>
+        <v>20</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="56"/>
+        <v>21</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="56"/>
+        <v>22</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="56"/>
+        <v>23</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="56"/>
+        <v>24</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="56"/>
+        <v>25</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="56"/>
+        <v>26</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="56"/>
+        <v>27</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="56"/>
+        <v>28</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="AH34">
+        <f>+AG34+1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="C35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="2">
+        <f>SUM(36:36)</f>
+        <v>1334.4320198115754</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
+        <f>+J35*$B$8</f>
+        <v>1.2</v>
+      </c>
+      <c r="L35" s="3">
+        <f>+K35*$B$8</f>
+        <v>1.44</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" ref="M35" si="57">+L35*$B$8</f>
+        <v>1.728</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" ref="N35" si="58">+M35*$B$8</f>
+        <v>2.0735999999999999</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" ref="O35" si="59">+N35*$B$8</f>
+        <v>2.4883199999999999</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" ref="P35" si="60">+O35*$B$8</f>
+        <v>2.9859839999999997</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" ref="Q35" si="61">+P35*$B$8</f>
+        <v>3.5831807999999996</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" ref="R35" si="62">+Q35*$B$8</f>
+        <v>4.2998169599999994</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" ref="S35" si="63">+R35*$B$8</f>
+        <v>5.1597803519999994</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" ref="T35" si="64">+S35*$B$8</f>
+        <v>6.1917364223999991</v>
+      </c>
+      <c r="U35" s="3">
+        <f t="shared" ref="U35" si="65">+T35*$B$8</f>
+        <v>7.4300837068799988</v>
+      </c>
+      <c r="V35" s="3">
+        <f t="shared" ref="V35" si="66">+U35*$B$8</f>
+        <v>8.9161004482559978</v>
+      </c>
+      <c r="W35" s="3">
+        <f t="shared" ref="W35" si="67">+V35*$B$8</f>
+        <v>10.699320537907196</v>
+      </c>
+      <c r="X35" s="3">
+        <f t="shared" ref="X35:AG35" si="68">+W35*$B$8</f>
+        <v>12.839184645488634</v>
+      </c>
+      <c r="Y35" s="3">
+        <f t="shared" si="68"/>
         <v>15.407021574586361</v>
       </c>
-      <c r="Z28" s="3">
-        <f t="shared" si="38"/>
+      <c r="Z35" s="3">
+        <f t="shared" si="68"/>
         <v>18.488425889503631</v>
       </c>
-      <c r="AA28" s="3">
-        <f t="shared" si="38"/>
+      <c r="AA35" s="3">
+        <f t="shared" si="68"/>
         <v>22.186111067404358</v>
       </c>
-      <c r="AB28" s="3">
-        <f t="shared" si="38"/>
+      <c r="AB35" s="3">
+        <f t="shared" si="68"/>
         <v>26.62333328088523</v>
       </c>
-      <c r="AC28" s="3">
-        <f t="shared" si="38"/>
+      <c r="AC35" s="3">
+        <f t="shared" si="68"/>
         <v>31.947999937062274</v>
       </c>
-      <c r="AD28" s="3">
-        <f t="shared" si="38"/>
+      <c r="AD35" s="3">
+        <f t="shared" si="68"/>
         <v>38.337599924474731</v>
       </c>
-      <c r="AE28" s="3">
-        <f t="shared" si="38"/>
+      <c r="AE35" s="3">
+        <f t="shared" si="68"/>
         <v>46.005119909369675</v>
       </c>
-      <c r="AF28" s="3">
-        <f t="shared" si="38"/>
+      <c r="AF35" s="3">
+        <f t="shared" si="68"/>
         <v>55.206143891243606</v>
       </c>
-      <c r="AG28" s="3">
-        <f t="shared" si="38"/>
+      <c r="AG35" s="3">
+        <f t="shared" si="68"/>
         <v>66.247372669492322</v>
       </c>
-      <c r="AH28" s="6">
-        <f>AG28/(D27+2%)</f>
-        <v>698.07558134343856</v>
-      </c>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="6"/>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
-      <c r="AO28" s="6"/>
-      <c r="AP28" s="6"/>
-      <c r="AQ28" s="6"/>
-      <c r="AR28" s="6"/>
-      <c r="AS28" s="6"/>
-      <c r="AT28" s="6"/>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="E29" s="2">
-        <f>-PV($D$2,E27,0,E28)</f>
-        <v>-0.9303190994511118</v>
-      </c>
-      <c r="F29" s="2">
-        <f>-PV($D$2,F27,0,F28)</f>
-        <v>-0.86549362680352748</v>
-      </c>
-      <c r="G29" s="2">
-        <f>-PV($D$2,G27,0,G28)</f>
-        <v>-0.80518525146853426</v>
-      </c>
-      <c r="H29" s="2">
-        <f>-PV($D$2,H27,0,H28)</f>
-        <v>-0.74907921803752375</v>
-      </c>
-      <c r="I29" s="2">
-        <f>-PV($D$2,I27,0,I28)</f>
-        <v>-0.69688270354221216</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" ref="J29" si="39">-PV($D$2,J27,0,J28)</f>
-        <v>0.64832328918244686</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" ref="K29" si="40">-PV($D$2,K27,0,K28)</f>
-        <v>0.72377704625447592</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" ref="L29" si="41">-PV($D$2,L27,0,L28)</f>
-        <v>0.80801233184981969</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" ref="M29" si="42">-PV($D$2,M27,0,M28)</f>
-        <v>0.90205116589430057</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" ref="N29" si="43">-PV($D$2,N27,0,N28)</f>
-        <v>1.0070345139763333</v>
-      </c>
-      <c r="O29" s="2">
-        <f t="shared" ref="O29" si="44">-PV($D$2,O27,0,O28)</f>
-        <v>1.1242361305903803</v>
-      </c>
-      <c r="P29" s="2">
-        <f t="shared" ref="P29" si="45">-PV($D$2,P27,0,P28)</f>
-        <v>1.2550780134974941</v>
-      </c>
-      <c r="Q29" s="2">
-        <f t="shared" ref="Q29" si="46">-PV($D$2,Q27,0,Q28)</f>
-        <v>1.4011476567094547</v>
-      </c>
-      <c r="R29" s="2">
-        <f t="shared" ref="R29" si="47">-PV($D$2,R27,0,R28)</f>
-        <v>1.5642173114255704</v>
-      </c>
-      <c r="S29" s="2">
-        <f t="shared" ref="S29" si="48">-PV($D$2,S27,0,S28)</f>
-        <v>1.7462654886135311</v>
-      </c>
-      <c r="T29" s="2">
-        <f t="shared" ref="T29" si="49">-PV($D$2,T27,0,T28)</f>
-        <v>1.9495009641233949</v>
-      </c>
-      <c r="U29" s="2">
-        <f t="shared" ref="U29" si="50">-PV($D$2,U27,0,U28)</f>
-        <v>2.1763895775868209</v>
-      </c>
-      <c r="V29" s="2">
-        <f t="shared" ref="V29" si="51">-PV($D$2,V27,0,V28)</f>
-        <v>2.4296841502504281</v>
-      </c>
-      <c r="W29" s="2">
-        <f t="shared" ref="W29" si="52">-PV($D$2,W27,0,W28)</f>
-        <v>2.7124578847339409</v>
-      </c>
-      <c r="X29" s="2">
-        <f t="shared" ref="X29:AG29" si="53">-PV($D$2,X27,0,X28)</f>
-        <v>3.0281416519496966</v>
-      </c>
-      <c r="Y29" s="2">
-        <f t="shared" si="53"/>
-        <v>3.3805656175826928</v>
-      </c>
-      <c r="Z29" s="2">
-        <f t="shared" si="53"/>
-        <v>3.7740057131819058</v>
-      </c>
-      <c r="AA29" s="2">
-        <f t="shared" si="53"/>
-        <v>4.2132355156928893</v>
-      </c>
-      <c r="AB29" s="2">
-        <f t="shared" si="53"/>
-        <v>4.7035841648818195</v>
-      </c>
-      <c r="AC29" s="2">
-        <f t="shared" si="53"/>
-        <v>5.2510010213584364</v>
-      </c>
-      <c r="AD29" s="2">
-        <f t="shared" si="53"/>
-        <v>5.8621278496884583</v>
-      </c>
-      <c r="AE29" s="2">
-        <f t="shared" si="53"/>
-        <v>6.5443794023873378</v>
-      </c>
-      <c r="AF29" s="2">
-        <f t="shared" si="53"/>
-        <v>7.306033382514471</v>
-      </c>
-      <c r="AG29" s="2">
-        <f t="shared" si="53"/>
-        <v>8.1563308763767459</v>
-      </c>
-      <c r="AH29" s="2">
-        <f>-PV($D$2,AH27,0,AH28)</f>
-        <v>79.957749164764095</v>
-      </c>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
-      <c r="AL29" s="2"/>
-      <c r="AM29" s="2"/>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
-      <c r="AP29" s="2"/>
-      <c r="AQ29" s="2"/>
-      <c r="AR29" s="2"/>
-      <c r="AS29" s="2"/>
-      <c r="AT29" s="2"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="AH35" s="6">
+        <f>AG35/($D$34+2%)</f>
+        <v>1789.0189756816721</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="E36" s="2">
+        <f>-PV($D$34,E34,0,E35)</f>
+        <v>-0.98325516454775164</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" ref="F36:AG36" si="69">-PV($D$34,F34,0,F35)</f>
+        <v>-0.96679071860982624</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="69"/>
+        <v>-0.95060196710994371</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="69"/>
+        <v>-0.93468429359010408</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="69"/>
+        <v>-0.91903315889413673</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="69"/>
+        <v>0.90364409987329442</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="69"/>
+        <v>1.0662152737362254</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="69"/>
+        <v>1.2580340093050055</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="69"/>
+        <v>1.4843621241910332</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="69"/>
+        <v>1.7514080696038854</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="69"/>
+        <v>2.0664972356023541</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="69"/>
+        <v>2.4382728953155994</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="69"/>
+        <v>2.8769333002750352</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="69"/>
+        <v>3.3945114306658031</v>
+      </c>
+      <c r="S36" s="2">
+        <f t="shared" si="69"/>
+        <v>4.0052050743822347</v>
+      </c>
+      <c r="T36" s="2">
+        <f t="shared" si="69"/>
+        <v>4.7257662893510313</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" si="69"/>
+        <v>5.5759609325400783</v>
+      </c>
+      <c r="V36" s="2">
+        <f t="shared" si="69"/>
+        <v>6.5791108610838354</v>
+      </c>
+      <c r="W36" s="2">
+        <f t="shared" si="69"/>
+        <v>7.7627336787514629</v>
+      </c>
+      <c r="X36" s="2">
+        <f t="shared" si="69"/>
+        <v>9.1592975767693705</v>
+      </c>
+      <c r="Y36" s="2">
+        <f t="shared" si="69"/>
+        <v>10.807111975185828</v>
+      </c>
+      <c r="Z36" s="2">
+        <f t="shared" si="69"/>
+        <v>12.751378396136779</v>
+      </c>
+      <c r="AA36" s="2">
+        <f t="shared" si="69"/>
+        <v>15.045430395724942</v>
+      </c>
+      <c r="AB36" s="2">
+        <f t="shared" si="69"/>
+        <v>17.752196567328323</v>
+      </c>
+      <c r="AC36" s="2">
+        <f t="shared" si="69"/>
+        <v>20.945926748270928</v>
+      </c>
+      <c r="AD36" s="2">
+        <f t="shared" si="69"/>
+        <v>24.714228781771542</v>
+      </c>
+      <c r="AE36" s="2">
+        <f t="shared" si="69"/>
+        <v>29.160471704989867</v>
+      </c>
+      <c r="AF36" s="2">
+        <f t="shared" si="69"/>
+        <v>34.406621285495838</v>
+      </c>
+      <c r="AG36" s="2">
+        <f>-PV($D$34,AG34,0,AG35)</f>
+        <v>40.596585688322854</v>
+      </c>
+      <c r="AH36" s="2">
+        <f>-PV($D$34,AH34,0,AH35)</f>
+        <v>1077.9584807196541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="5">
+        <f>+D35/D29-1</f>
+        <v>0.13475789414250139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:46" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>1.05</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.145096</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <f>+E44+1</f>
         <v>2</v>
       </c>
-      <c r="B33">
-        <f>B27</f>
-        <v>1.2</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="G44">
+        <f t="shared" ref="G44" si="70">+F44+1</f>
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44" si="71">+G44+1</f>
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <f>+H44+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="C45" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <f>SUM(46:46)</f>
+        <v>6.9751671207491057</v>
+      </c>
+      <c r="E45">
+        <v>1.05</v>
+      </c>
+      <c r="F45" s="3">
+        <f>+E45*B44</f>
+        <v>1.1025</v>
+      </c>
+      <c r="G45" s="3">
+        <f>+F45*B44</f>
+        <v>1.1576250000000001</v>
+      </c>
+      <c r="H45" s="3">
+        <f>+G45*B44</f>
+        <v>1.2155062500000002</v>
+      </c>
+      <c r="I45" s="6">
+        <f>H45/(D44+2%)</f>
+        <v>7.3624209550806823</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6"/>
+      <c r="AM45" s="6"/>
+      <c r="AN45" s="6"/>
+      <c r="AO45" s="6"/>
+      <c r="AP45" s="6"/>
+      <c r="AQ45" s="6"/>
+      <c r="AR45" s="6"/>
+      <c r="AS45" s="6"/>
+      <c r="AT45" s="6"/>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="E46" s="2">
+        <f>-PV($D$44,E44,0,E45)</f>
+        <v>0.91695368772574526</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" ref="F46:I46" si="72">-PV($D$44,F44,0,F45)</f>
+        <v>0.84080406543384345</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="72"/>
+        <v>0.77097838845436162</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="72"/>
+        <v>0.70695147645007894</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="72"/>
+        <v>3.7394795026850769</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="2"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <f>B44</f>
+        <v>1.05</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.160051</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f>+E50+1</f>
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ref="G50" si="73">+F50+1</f>
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ref="H50" si="74">+G50+1</f>
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <f>+H50+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="2">
+        <f>SUM(52:52)</f>
+        <v>6.3506212008470566</v>
+      </c>
+      <c r="E51">
+        <v>1.05</v>
+      </c>
+      <c r="F51" s="3">
+        <f>+E51*B50</f>
+        <v>1.1025</v>
+      </c>
+      <c r="G51" s="3">
+        <f>+F51*B50</f>
+        <v>1.1576250000000001</v>
+      </c>
+      <c r="H51" s="3">
+        <f>+G51*B50</f>
+        <v>1.2155062500000002</v>
+      </c>
+      <c r="I51" s="6">
+        <f>H51/(D50+2%)</f>
+        <v>6.750899745072231</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="6"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="6"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="6"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="6"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="6"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="E52" s="2">
+        <f>-PV($D$50,E50,0,E51)</f>
+        <v>0.90513261916932974</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" ref="F52:I52" si="75">-PV($D$50,F50,0,F51)</f>
+        <v>0.81926505828433083</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="75"/>
+        <v>0.74154352799880996</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="75"/>
+        <v>0.671195235725628</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="75"/>
+        <v>3.2134847596689582</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="5">
+        <f>+D51/D45-1</f>
+        <v>-8.953848833875333E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:34" ht="60" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="7">
-        <v>6.08E-2</v>
-      </c>
-      <c r="E33">
+      <c r="D60" s="7">
+        <v>8.3934999999999996E-2</v>
+      </c>
+      <c r="E60">
         <v>1</v>
       </c>
-      <c r="F33">
-        <f>+E33+1</f>
+      <c r="F60">
+        <f>+E60+1</f>
         <v>2</v>
       </c>
-      <c r="G33">
-        <f t="shared" ref="G33" si="54">+F33+1</f>
+      <c r="G60">
+        <f t="shared" ref="G60" si="76">+F60+1</f>
         <v>3</v>
       </c>
-      <c r="H33">
-        <f t="shared" ref="H33" si="55">+G33+1</f>
+      <c r="H60">
+        <f t="shared" ref="H60" si="77">+G60+1</f>
         <v>4</v>
       </c>
-      <c r="I33">
-        <f t="shared" ref="I33" si="56">+H33+1</f>
+      <c r="I60">
+        <f t="shared" ref="I60" si="78">+H60+1</f>
         <v>5</v>
       </c>
-      <c r="J33">
-        <f t="shared" ref="J33" si="57">+I33+1</f>
+      <c r="J60">
+        <f t="shared" ref="J60" si="79">+I60+1</f>
         <v>6</v>
       </c>
-      <c r="K33">
-        <f t="shared" ref="K33" si="58">+J33+1</f>
+      <c r="K60">
+        <f t="shared" ref="K60" si="80">+J60+1</f>
         <v>7</v>
       </c>
-      <c r="L33">
-        <f t="shared" ref="L33" si="59">+K33+1</f>
+      <c r="L60">
+        <f t="shared" ref="L60" si="81">+K60+1</f>
         <v>8</v>
       </c>
-      <c r="M33">
-        <f t="shared" ref="M33" si="60">+L33+1</f>
+      <c r="M60">
+        <f>+L60+1</f>
         <v>9</v>
       </c>
-      <c r="N33">
-        <f t="shared" ref="N33" si="61">+M33+1</f>
-        <v>10</v>
-      </c>
-      <c r="O33">
-        <f t="shared" ref="O33" si="62">+N33+1</f>
-        <v>11</v>
-      </c>
-      <c r="P33">
-        <f t="shared" ref="P33" si="63">+O33+1</f>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C61" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <f>SUM(62:62)</f>
+        <v>24.785797015354326</v>
+      </c>
+      <c r="E61">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F61" s="3">
+        <f>+E61*B60</f>
+        <v>1.3224999999999998</v>
+      </c>
+      <c r="G61" s="3">
+        <f>+F61*B60</f>
+        <v>1.5208749999999995</v>
+      </c>
+      <c r="H61" s="3">
+        <f>+G61*B60</f>
+        <v>1.7490062499999994</v>
+      </c>
+      <c r="I61" s="3">
+        <f>+H61*B60</f>
+        <v>2.0113571874999994</v>
+      </c>
+      <c r="J61" s="3">
+        <f>+I61*B60</f>
+        <v>2.3130607656249991</v>
+      </c>
+      <c r="K61" s="3">
+        <f>+J61*B60</f>
+        <v>2.6600198804687487</v>
+      </c>
+      <c r="L61" s="3">
+        <f>+K61*B60</f>
+        <v>3.0590228625390607</v>
+      </c>
+      <c r="M61" s="6">
+        <f>L61/(D60+2%)</f>
+        <v>29.432076418329348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="E62" s="2">
+        <f>-PV($D$60,E60,0,E61)</f>
+        <v>1.06094922666027</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" ref="F62:L62" si="82">-PV($D$60,F60,0,F61)</f>
+        <v>1.125613261551025</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="82"/>
+        <v>1.1942185193611041</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="82"/>
+        <v>1.2670052145795363</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="82"/>
+        <v>1.3442282025826886</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="82"/>
+        <v>1.4261578719850281</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="82"/>
+        <v>1.5130810913779722</v>
+      </c>
+      <c r="L62" s="2">
+        <f t="shared" si="82"/>
+        <v>1.6053022137717368</v>
+      </c>
+      <c r="M62" s="2">
+        <f>-PV($D$60,M60,0,M61)</f>
+        <v>14.249241413484967</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q33">
-        <f t="shared" ref="Q33" si="64">+P33+1</f>
+      <c r="B66">
+        <f>B60</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R33">
-        <f t="shared" ref="R33" si="65">+Q33+1</f>
+      <c r="D66" s="7">
+        <v>9.6665000000000001E-2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <f>+E66+1</f>
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66:L66" si="83">+F66+1</f>
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="83"/>
+        <v>6</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="83"/>
+        <v>7</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="83"/>
+        <v>8</v>
+      </c>
+      <c r="M66">
+        <f>+L66+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C67" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S33">
-        <f t="shared" ref="S33" si="66">+R33+1</f>
+      <c r="D67" s="2">
+        <f>SUM(68:68)</f>
+        <v>21.392879578540015</v>
+      </c>
+      <c r="E67">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F67" s="3">
+        <f>+E67*B66</f>
+        <v>1.3224999999999998</v>
+      </c>
+      <c r="G67" s="3">
+        <f>+F67*B66</f>
+        <v>1.5208749999999995</v>
+      </c>
+      <c r="H67" s="3">
+        <f>+G67*B66</f>
+        <v>1.7490062499999994</v>
+      </c>
+      <c r="I67" s="3">
+        <f>+H67*B66</f>
+        <v>2.0113571874999994</v>
+      </c>
+      <c r="J67" s="3">
+        <f>+I67*B66</f>
+        <v>2.3130607656249991</v>
+      </c>
+      <c r="K67" s="3">
+        <f>+J67*B66</f>
+        <v>2.6600198804687487</v>
+      </c>
+      <c r="L67" s="3">
+        <f>+K67*B66</f>
+        <v>3.0590228625390607</v>
+      </c>
+      <c r="M67" s="6">
+        <f>L67/(D66+2%)</f>
+        <v>26.220570544199724</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E68" s="2">
+        <f>-PV($D$66,E66,0,E67)</f>
+        <v>1.0486338125133927</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" ref="F68:L68" si="84">-PV($D$66,F66,0,F67)</f>
+        <v>1.0996328727463736</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="84"/>
+        <v>1.1531122117130841</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" ref="H68" si="85">-PV($D$66,H66,0,H67)</f>
+        <v>1.2091924548244422</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" ref="I68" si="86">-PV($D$66,I66,0,I67)</f>
+        <v>1.2680000939649831</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" ref="J68" si="87">-PV($D$66,J66,0,J67)</f>
+        <v>1.3296677728018409</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" ref="K68" si="88">-PV($D$66,K66,0,K67)</f>
+        <v>1.3943345859693863</v>
+      </c>
+      <c r="L68" s="2">
+        <f t="shared" ref="L68" si="89">-PV($D$66,L66,0,L67)</f>
+        <v>1.4621463928043605</v>
+      </c>
+      <c r="M68" s="2">
+        <f>-PV($D$66,M66,0,M67)</f>
+        <v>11.428159381202152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B71" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="T33">
-        <f t="shared" ref="T33" si="67">+S33+1</f>
-        <v>16</v>
-      </c>
-      <c r="U33">
-        <f t="shared" ref="U33" si="68">+T33+1</f>
-        <v>17</v>
-      </c>
-      <c r="V33">
-        <f t="shared" ref="V33" si="69">+U33+1</f>
-        <v>18</v>
-      </c>
-      <c r="W33">
-        <f t="shared" ref="W33" si="70">+V33+1</f>
-        <v>19</v>
-      </c>
-      <c r="X33">
-        <f t="shared" ref="X33:AG33" si="71">+W33+1</f>
-        <v>20</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="71"/>
-        <v>21</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" si="71"/>
-        <v>22</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" si="71"/>
-        <v>23</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="71"/>
-        <v>24</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="71"/>
-        <v>25</v>
-      </c>
-      <c r="AD33">
-        <f t="shared" si="71"/>
-        <v>26</v>
-      </c>
-      <c r="AE33">
-        <f t="shared" si="71"/>
-        <v>27</v>
-      </c>
-      <c r="AF33">
-        <f t="shared" si="71"/>
-        <v>28</v>
-      </c>
-      <c r="AG33">
-        <f t="shared" si="71"/>
-        <v>29</v>
-      </c>
-      <c r="AH33">
-        <f>+AG33+1</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <f>SUM(35:35)</f>
-        <v>212.38987295921379</v>
-      </c>
-      <c r="E34">
-        <v>-1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J34" s="3">
-        <v>1</v>
-      </c>
-      <c r="K34" s="3">
-        <f t="shared" ref="K34" si="72">+J34*$B$8</f>
-        <v>1.2</v>
-      </c>
-      <c r="L34" s="3">
-        <f t="shared" ref="L34" si="73">+K34*$B$8</f>
-        <v>1.44</v>
-      </c>
-      <c r="M34" s="3">
-        <f t="shared" ref="M34" si="74">+L34*$B$8</f>
-        <v>1.728</v>
-      </c>
-      <c r="N34" s="3">
-        <f t="shared" ref="N34" si="75">+M34*$B$8</f>
-        <v>2.0735999999999999</v>
-      </c>
-      <c r="O34" s="3">
-        <f t="shared" ref="O34" si="76">+N34*$B$8</f>
-        <v>2.4883199999999999</v>
-      </c>
-      <c r="P34" s="3">
-        <f t="shared" ref="P34" si="77">+O34*$B$8</f>
-        <v>2.9859839999999997</v>
-      </c>
-      <c r="Q34" s="3">
-        <f t="shared" ref="Q34" si="78">+P34*$B$8</f>
-        <v>3.5831807999999996</v>
-      </c>
-      <c r="R34" s="3">
-        <f t="shared" ref="R34" si="79">+Q34*$B$8</f>
-        <v>4.2998169599999994</v>
-      </c>
-      <c r="S34" s="3">
-        <f t="shared" ref="S34" si="80">+R34*$B$8</f>
-        <v>5.1597803519999994</v>
-      </c>
-      <c r="T34" s="3">
-        <f t="shared" ref="T34" si="81">+S34*$B$8</f>
-        <v>6.1917364223999991</v>
-      </c>
-      <c r="U34" s="3">
-        <f t="shared" ref="U34" si="82">+T34*$B$8</f>
-        <v>7.4300837068799988</v>
-      </c>
-      <c r="V34" s="3">
-        <f t="shared" ref="V34" si="83">+U34*$B$8</f>
-        <v>8.9161004482559978</v>
-      </c>
-      <c r="W34" s="3">
-        <f t="shared" ref="W34" si="84">+V34*$B$8</f>
-        <v>10.699320537907196</v>
-      </c>
-      <c r="X34" s="3">
-        <f t="shared" ref="X34:AG34" si="85">+W34*$B$8</f>
-        <v>12.839184645488634</v>
-      </c>
-      <c r="Y34" s="3">
-        <f t="shared" si="85"/>
-        <v>15.407021574586361</v>
-      </c>
-      <c r="Z34" s="3">
-        <f t="shared" si="85"/>
-        <v>18.488425889503631</v>
-      </c>
-      <c r="AA34" s="3">
-        <f t="shared" si="85"/>
-        <v>22.186111067404358</v>
-      </c>
-      <c r="AB34" s="3">
-        <f t="shared" si="85"/>
-        <v>26.62333328088523</v>
-      </c>
-      <c r="AC34" s="3">
-        <f t="shared" si="85"/>
-        <v>31.947999937062274</v>
-      </c>
-      <c r="AD34" s="3">
-        <f t="shared" si="85"/>
-        <v>38.337599924474731</v>
-      </c>
-      <c r="AE34" s="3">
-        <f t="shared" si="85"/>
-        <v>46.005119909369675</v>
-      </c>
-      <c r="AF34" s="3">
-        <f t="shared" si="85"/>
-        <v>55.206143891243606</v>
-      </c>
-      <c r="AG34" s="3">
-        <f t="shared" si="85"/>
-        <v>66.247372669492322</v>
-      </c>
-      <c r="AH34" s="6">
-        <f>AG34/($D$2+2%)</f>
-        <v>698.07558134343856</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="E35" s="2">
-        <f>-PV($D$8,E33,0,E34)</f>
-        <v>-0.94268476621417796</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" ref="F35:AH35" si="86">-PV($D$8,F33,0,F34)</f>
-        <v>-0.88865456845227941</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" si="86"/>
-        <v>-0.83772112410659827</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="86"/>
-        <v>-0.78970694203110703</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="86"/>
-        <v>-0.74444470402630747</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="86"/>
-        <v>0.70177668177442265</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="86"/>
-        <v>0.79386502463169983</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="86"/>
-        <v>0.89803735818065589</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="86"/>
-        <v>1.0158793644577555</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="86"/>
-        <v>1.1491848014228003</v>
-      </c>
-      <c r="O35" s="2">
-        <f t="shared" si="86"/>
-        <v>1.2999828070393671</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" si="86"/>
-        <v>1.4705687862436279</v>
-      </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="86"/>
-        <v>1.6635393509543299</v>
-      </c>
-      <c r="R35" s="2">
-        <f t="shared" si="86"/>
-        <v>1.8818318449709617</v>
-      </c>
-      <c r="S35" s="2">
-        <f t="shared" si="86"/>
-        <v>2.1287690553970156</v>
-      </c>
-      <c r="T35" s="2">
-        <f t="shared" si="86"/>
-        <v>2.4081097911730946</v>
-      </c>
-      <c r="U35" s="2">
-        <f t="shared" si="86"/>
-        <v>2.724106098612098</v>
-      </c>
-      <c r="V35" s="2">
-        <f t="shared" si="86"/>
-        <v>3.0815679848553144</v>
-      </c>
-      <c r="W35" s="2">
-        <f t="shared" si="86"/>
-        <v>3.4859366344517131</v>
-      </c>
-      <c r="X35" s="2">
-        <f t="shared" si="86"/>
-        <v>3.9433672335426611</v>
-      </c>
-      <c r="Y35" s="2">
-        <f t="shared" ref="Y35:AG35" si="87">-PV($D$8,Y33,0,Y34)</f>
-        <v>4.4608226623785763</v>
-      </c>
-      <c r="Z35" s="2">
-        <f t="shared" si="87"/>
-        <v>5.0461794823287054</v>
-      </c>
-      <c r="AA35" s="2">
-        <f t="shared" si="87"/>
-        <v>5.7083478306885809</v>
-      </c>
-      <c r="AB35" s="2">
-        <f t="shared" si="87"/>
-        <v>6.4574070482902499</v>
-      </c>
-      <c r="AC35" s="2">
-        <f t="shared" si="87"/>
-        <v>7.3047591044007341</v>
-      </c>
-      <c r="AD35" s="2">
-        <f t="shared" si="87"/>
-        <v>8.263302154299474</v>
-      </c>
-      <c r="AE35" s="2">
-        <f t="shared" si="87"/>
-        <v>9.3476268713794983</v>
-      </c>
-      <c r="AF35" s="2">
-        <f t="shared" si="87"/>
-        <v>10.574238542284498</v>
-      </c>
-      <c r="AG35" s="2">
-        <f t="shared" si="87"/>
-        <v>11.961808305751692</v>
-      </c>
-      <c r="AH35" s="2">
-        <f t="shared" si="86"/>
-        <v>118.82207024453473</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C38" s="5">
-        <f>+D34/D28-1</f>
-        <v>0.42948043500250965</v>
+      <c r="C71" s="5">
+        <f>+D67/D61-1</f>
+        <v>-0.1368895837689813</v>
       </c>
     </row>
   </sheetData>

--- a/投资心得/关于成长股的估值.xlsx
+++ b/投资心得/关于成长股的估值.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>利率</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -160,6 +160,25 @@
     <t>工商银行估值（现金流久期5年）</t>
     <rPh sb="0" eb="1">
       <t>gong shang yin hang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian jin liu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiu qi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行估值（现金流久期5年）</t>
+    <rPh sb="0" eb="1">
+      <t>ping an</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>gu zhi</t>
@@ -599,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AT71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1540,7 +1559,7 @@
         <v>-0.9619306302823758</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" ref="F30:AG30" si="38">-PV($D$28,G28,0,G29)</f>
+        <f t="shared" ref="G30:AG30" si="38">-PV($D$28,G28,0,G29)</f>
         <v>-0.94344292276781772</v>
       </c>
       <c r="H30" s="2">
@@ -1927,7 +1946,7 @@
         <v>-0.98325516454775164</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" ref="F36:AG36" si="69">-PV($D$34,F34,0,F35)</f>
+        <f t="shared" ref="F36:AF36" si="69">-PV($D$34,F34,0,F35)</f>
         <v>-0.96679071860982624</v>
       </c>
       <c r="G36" s="2">
@@ -2356,7 +2375,7 @@
     <row r="57" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:34" ht="60" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.2">
@@ -2590,7 +2609,7 @@
         <v>1.0486338125133927</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" ref="F68:L68" si="84">-PV($D$66,F66,0,F67)</f>
+        <f t="shared" ref="F68:G68" si="84">-PV($D$66,F66,0,F67)</f>
         <v>1.0996328727463736</v>
       </c>
       <c r="G68" s="2">

--- a/投资心得/关于成长股的估值.xlsx
+++ b/投资心得/关于成长股的估值.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="16040" windowHeight="16460"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15160" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="当下测算" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
   <si>
     <t>利率</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -176,7 +176,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>平安银行估值（现金流久期5年）</t>
+    <t>平安银行估值（现金流久期9年）</t>
     <rPh sb="0" eb="1">
       <t>ping an</t>
     </rPh>
@@ -194,12 +194,51 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>华兰生物估值（现金流久期20年）</t>
+    <rPh sb="0" eb="1">
+      <t>hua lan sheng wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian jin liu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiu qi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华兰生物估值（现金流久期15年）</t>
+    <rPh sb="0" eb="1">
+      <t>hua lan sheng wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian jin liu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiu qi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]\-&quot;¥&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
@@ -269,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +337,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AT71"/>
+  <dimension ref="A2:AT106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -720,7 +762,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AH2">
+      <c r="Y2">
         <f>+X2+1</f>
         <v>21</v>
       </c>
@@ -752,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:X3" si="1">+J3*$B$2</f>
+        <f t="shared" ref="K3:W3" si="1">+J3*$B$2</f>
         <v>1.2</v>
       </c>
       <c r="L3" s="3">
@@ -804,10 +846,13 @@
         <v>10.699320537907196</v>
       </c>
       <c r="X3" s="3">
-        <f t="shared" si="1"/>
+        <f>+W3*$B$2</f>
         <v>12.839184645488634</v>
       </c>
-      <c r="Y3" s="3"/>
+      <c r="Y3" s="6">
+        <f>X3/(D2+2%)</f>
+        <v>135.29172439924798</v>
+      </c>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
@@ -816,10 +861,6 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="6">
-        <f>X3/(D2+2%)</f>
-        <v>135.29172439924798</v>
-      </c>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6"/>
@@ -859,7 +900,7 @@
         <v>0.64832328918244686</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:AH4" si="3">-PV($D$2,K2,0,K3)</f>
+        <f t="shared" ref="K4:W4" si="3">-PV($D$2,K2,0,K3)</f>
         <v>0.72377704625447592</v>
       </c>
       <c r="L4" s="2">
@@ -911,10 +952,13 @@
         <v>2.7124578847339409</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" si="3"/>
+        <f>-PV($D$2,X2,0,X3)</f>
         <v>3.0281416519496966</v>
       </c>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <f>-PV($D$2,Y2,0,Y3)</f>
+        <v>29.685332082742296</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -923,10 +967,6 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2">
-        <f t="shared" si="3"/>
-        <v>29.685332082742296</v>
-      </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
@@ -1033,7 +1073,7 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="AH8">
+      <c r="Y8">
         <f>+X8+1</f>
         <v>21</v>
       </c>
@@ -1065,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" ref="K9:X9" si="5">+J9*$B$8</f>
+        <f t="shared" ref="K9:W9" si="5">+J9*$B$8</f>
         <v>1.2</v>
       </c>
       <c r="L9" s="3">
@@ -1117,10 +1157,13 @@
         <v>10.699320537907196</v>
       </c>
       <c r="X9" s="3">
-        <f t="shared" si="5"/>
+        <f>+W9*$B$8</f>
         <v>12.839184645488634</v>
       </c>
-      <c r="Y9" s="3"/>
+      <c r="Y9" s="6">
+        <f>X9/($D$2+2%)</f>
+        <v>135.29172439924798</v>
+      </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -1129,10 +1172,6 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
-      <c r="AH9" s="6">
-        <f>X9/($D$2+2%)</f>
-        <v>135.29172439924798</v>
-      </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="E10" s="2">
@@ -1215,7 +1254,10 @@
         <f t="shared" si="6"/>
         <v>3.9433672335426611</v>
       </c>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <f>-PV($D$8,Y8,0,Y9)</f>
+        <v>39.171256255519637</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -1224,10 +1266,6 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="2">
-        <f t="shared" si="6"/>
-        <v>39.171256255519637</v>
-      </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C13" s="5">
@@ -1292,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>1.9595999999999999E-2</v>
+        <v>9.3284000000000006E-2</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1420,7 +1458,7 @@
       </c>
       <c r="D29" s="2">
         <f>SUM(30:30)</f>
-        <v>1175.9618740700289</v>
+        <v>86.503737187602397</v>
       </c>
       <c r="E29">
         <v>-1</v>
@@ -1534,7 +1572,7 @@
       </c>
       <c r="AH29" s="6">
         <f>AG29/(D28+2%)</f>
-        <v>1673.0824494770261</v>
+        <v>584.79019693418593</v>
       </c>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
@@ -1552,123 +1590,123 @@
     <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="E30" s="2">
         <f>-PV($D$28,E28,0,E29)</f>
-        <v>-0.9807806229133893</v>
+        <v>-0.9146754182810688</v>
       </c>
       <c r="F30" s="2">
         <f>-PV($D$28,F28,0,F29)</f>
-        <v>-0.9619306302823758</v>
+        <v>-0.83663112080764823</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" ref="G30:AG30" si="38">-PV($D$28,G28,0,G29)</f>
-        <v>-0.94344292276781772</v>
+        <v>-0.76524592037169514</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="38"/>
-        <v>-0.92531053747544878</v>
+        <v>-0.69995163230386181</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="38"/>
-        <v>-0.9075266453334937</v>
+        <v>-0.6402285520540516</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="38"/>
-        <v>0.89008454852068231</v>
+        <v>0.58560131864552278</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="38"/>
-        <v>1.0475732135324374</v>
+        <v>0.64276215729364683</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="38"/>
-        <v>1.2329274106988697</v>
+        <v>0.70550249409337029</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="38"/>
-        <v>1.4510775766466757</v>
+        <v>0.77436694665982886</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="38"/>
-        <v>1.7078265234230132</v>
+        <v>0.84995329300693578</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="38"/>
-        <v>2.010003793764997</v>
+        <v>0.93291766056058911</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="38"/>
-        <v>2.365647327488531</v>
+        <v>1.0239802216740634</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="38"/>
-        <v>2.7842172713371154</v>
+        <v>1.1239314450855187</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="38"/>
-        <v>3.276847619649879</v>
+        <v>1.2336389575834117</v>
       </c>
       <c r="S30" s="2">
         <f t="shared" si="38"/>
-        <v>3.8566423795109586</v>
+        <v>1.3540550754425147</v>
       </c>
       <c r="T30" s="2">
         <f t="shared" si="38"/>
-        <v>4.5390241383971208</v>
+        <v>1.4862250710071834</v>
       </c>
       <c r="U30" s="2">
         <f t="shared" si="38"/>
-        <v>5.342144306251245</v>
+        <v>1.631296246179968</v>
       </c>
       <c r="V30" s="2">
         <f t="shared" si="38"/>
-        <v>6.2873659444539731</v>
+        <v>1.7905278915779996</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" si="38"/>
-        <v>7.3998320249831968</v>
+        <v>1.9653022178076327</v>
       </c>
       <c r="X30" s="2">
         <f t="shared" si="38"/>
-        <v>8.709134235500958</v>
+        <v>2.15713635374629</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="38"/>
-        <v>10.250100120637144</v>
+        <v>2.367695515982625</v>
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="38"/>
-        <v>12.063719497491723</v>
+        <v>2.5988074637323422</v>
       </c>
       <c r="AA30" s="2">
         <f t="shared" si="38"/>
-        <v>14.198234788082802</v>
+        <v>2.8524783647056124</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="38"/>
-        <v>16.710424271671684</v>
+        <v>3.1309102096497665</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="38"/>
-        <v>19.667112391580609</v>
+        <v>3.4365199267342419</v>
       </c>
       <c r="AD30" s="2">
         <f t="shared" si="38"/>
-        <v>23.146947290786478</v>
+        <v>3.7719603617002462</v>
       </c>
       <c r="AE30" s="2">
         <f t="shared" si="38"/>
-        <v>27.242492858881139</v>
+        <v>4.140143305893341</v>
       </c>
       <c r="AF30" s="2">
         <f t="shared" si="38"/>
-        <v>32.062690939016399</v>
+        <v>4.5442647720738698</v>
       </c>
       <c r="AG30" s="2">
         <f t="shared" si="38"/>
-        <v>37.735759189737578</v>
+        <v>4.987832737411912</v>
       </c>
       <c r="AH30" s="2">
         <f>-PV($D$28,AH28,0,AH29)</f>
-        <v>934.7030357667561</v>
+        <v>40.272659823172283</v>
       </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
@@ -1695,7 +1733,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="7">
-        <v>1.703E-2</v>
+        <v>8.6717000000000002E-2</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1823,7 +1861,7 @@
       </c>
       <c r="D35" s="2">
         <f>SUM(36:36)</f>
-        <v>1334.4320198115754</v>
+        <v>104.39552337236313</v>
       </c>
       <c r="E35">
         <v>-1</v>
@@ -1937,129 +1975,129 @@
       </c>
       <c r="AH35" s="6">
         <f>AG35/($D$34+2%)</f>
-        <v>1789.0189756816721</v>
+        <v>620.77619001182859</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.2">
       <c r="E36" s="2">
         <f>-PV($D$34,E34,0,E35)</f>
-        <v>-0.98325516454775164</v>
+        <v>-0.92020277588369381</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" ref="F36:AF36" si="69">-PV($D$34,F34,0,F35)</f>
-        <v>-0.96679071860982624</v>
+        <v>-0.84677314874405551</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="69"/>
-        <v>-0.95060196710994371</v>
+        <v>-0.77920300201805592</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="69"/>
-        <v>-0.93468429359010408</v>
+        <v>-0.71702476543392235</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="69"/>
-        <v>-0.91903315889413673</v>
+        <v>-0.65980817952964987</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="69"/>
-        <v>0.90364409987329442</v>
+        <v>0.60715731835395026</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="69"/>
-        <v>1.0662152737362254</v>
+        <v>0.67044941969688554</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="69"/>
-        <v>1.2580340093050055</v>
+        <v>0.74033930051362284</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="69"/>
-        <v>1.4843621241910332</v>
+        <v>0.81751473531411345</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="69"/>
-        <v>1.7514080696038854</v>
+        <v>0.90273519451424444</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="69"/>
-        <v>2.0664972356023541</v>
+        <v>0.99683931825589678</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="69"/>
-        <v>2.4382728953155994</v>
+        <v>1.100753169322902</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="69"/>
-        <v>2.8769333002750352</v>
+        <v>1.2154993463684496</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="69"/>
-        <v>3.3945114306658031</v>
+        <v>1.3422070471356751</v>
       </c>
       <c r="S36" s="2">
         <f t="shared" si="69"/>
-        <v>4.0052050743822347</v>
+        <v>1.4821231807018851</v>
       </c>
       <c r="T36" s="2">
         <f t="shared" si="69"/>
-        <v>4.7257662893510313</v>
+        <v>1.6366246381001326</v>
       </c>
       <c r="U36" s="2">
         <f t="shared" si="69"/>
-        <v>5.5759609325400783</v>
+        <v>1.8072318420712652</v>
       </c>
       <c r="V36" s="2">
         <f t="shared" si="69"/>
-        <v>6.5791108610838354</v>
+        <v>1.9956237092872551</v>
       </c>
       <c r="W36" s="2">
         <f t="shared" si="69"/>
-        <v>7.7627336787514629</v>
+        <v>2.203654172286535</v>
       </c>
       <c r="X36" s="2">
         <f t="shared" si="69"/>
-        <v>9.1592975767693705</v>
+        <v>2.4333704237109033</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="69"/>
-        <v>10.807111975185828</v>
+        <v>2.6870330623824641</v>
       </c>
       <c r="Z36" s="2">
         <f t="shared" si="69"/>
-        <v>12.751378396136779</v>
+        <v>2.9671383394747264</v>
       </c>
       <c r="AA36" s="2">
         <f t="shared" si="69"/>
-        <v>15.045430395724942</v>
+        <v>3.2764427236986924</v>
       </c>
       <c r="AB36" s="2">
         <f t="shared" si="69"/>
-        <v>17.752196567328323</v>
+        <v>3.6179900272457606</v>
       </c>
       <c r="AC36" s="2">
         <f t="shared" si="69"/>
-        <v>20.945926748270928</v>
+        <v>3.9951413594292835</v>
       </c>
       <c r="AD36" s="2">
         <f t="shared" si="69"/>
-        <v>24.714228781771542</v>
+        <v>4.4116082027934969</v>
       </c>
       <c r="AE36" s="2">
         <f t="shared" si="69"/>
-        <v>29.160471704989867</v>
+        <v>4.8714889371862187</v>
       </c>
       <c r="AF36" s="2">
         <f t="shared" si="69"/>
-        <v>34.406621285495838</v>
+        <v>5.3793091712225554</v>
       </c>
       <c r="AG36" s="2">
         <f>-PV($D$34,AG34,0,AG35)</f>
-        <v>40.596585688322854</v>
+        <v>5.9400662780347293</v>
       </c>
       <c r="AH36" s="2">
         <f>-PV($D$34,AH34,0,AH35)</f>
-        <v>1077.9584807196541</v>
+        <v>51.22019432687086</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.2">
@@ -2068,7 +2106,7 @@
       </c>
       <c r="C39" s="5">
         <f>+D35/D29-1</f>
-        <v>0.13475789414250139</v>
+        <v>0.20683252269157415</v>
       </c>
     </row>
     <row r="41" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2082,13 +2120,13 @@
         <v>11</v>
       </c>
       <c r="B44">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>0.145096</v>
+        <v>9.3284000000000006E-2</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2102,12 +2140,16 @@
         <v>3</v>
       </c>
       <c r="H44">
-        <f t="shared" ref="H44" si="71">+G44+1</f>
+        <f t="shared" ref="H44:I44" si="71">+G44+1</f>
         <v>4</v>
       </c>
       <c r="I44">
-        <f>+H44+1</f>
+        <f t="shared" si="71"/>
         <v>5</v>
+      </c>
+      <c r="J44">
+        <f>+I44+1</f>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.2">
@@ -2116,28 +2158,31 @@
       </c>
       <c r="D45" s="2">
         <f>SUM(46:46)</f>
-        <v>6.9751671207491057</v>
+        <v>10.075210070541054</v>
       </c>
       <c r="E45">
         <v>1.05</v>
       </c>
       <c r="F45" s="3">
         <f>+E45*B44</f>
-        <v>1.1025</v>
+        <v>1.0710000000000002</v>
       </c>
       <c r="G45" s="3">
         <f>+F45*B44</f>
-        <v>1.1576250000000001</v>
+        <v>1.0924200000000002</v>
       </c>
       <c r="H45" s="3">
         <f>+G45*B44</f>
-        <v>1.2155062500000002</v>
-      </c>
-      <c r="I45" s="6">
-        <f>H45/(D44+2%)</f>
-        <v>7.3624209550806823</v>
-      </c>
-      <c r="J45" s="3"/>
+        <v>1.1142684000000003</v>
+      </c>
+      <c r="I45" s="3">
+        <f>+H45*B44</f>
+        <v>1.1365537680000002</v>
+      </c>
+      <c r="J45" s="6">
+        <f>I45/(D44+2%)</f>
+        <v>10.032782811341407</v>
+      </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -2178,25 +2223,28 @@
     <row r="46" spans="1:46" x14ac:dyDescent="0.2">
       <c r="E46" s="2">
         <f>-PV($D$44,E44,0,E45)</f>
-        <v>0.91695368772574526</v>
+        <v>0.9604091891951223</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" ref="F46:I46" si="72">-PV($D$44,F44,0,F45)</f>
-        <v>0.84080406543384345</v>
+        <f t="shared" ref="F46:H46" si="72">-PV($D$44,F44,0,F45)</f>
+        <v>0.8960319303849914</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="72"/>
-        <v>0.77097838845436162</v>
+        <v>0.83596994833244731</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="72"/>
-        <v>0.70695147645007894</v>
+        <v>0.77993398540461256</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="72"/>
-        <v>3.7394795026850769</v>
-      </c>
-      <c r="J46" s="2"/>
+        <f t="shared" ref="I46" si="73">-PV($D$44,I44,0,I45)</f>
+        <v>0.72765417321821668</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" ref="J46" si="74">-PV($D$44,J44,0,J45)</f>
+        <v>5.8752108440056636</v>
+      </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -2240,13 +2288,13 @@
       </c>
       <c r="B50">
         <f>B44</f>
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="7">
-        <v>0.160051</v>
+        <v>0.03</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2256,16 +2304,20 @@
         <v>2</v>
       </c>
       <c r="G50">
-        <f t="shared" ref="G50" si="73">+F50+1</f>
+        <f t="shared" ref="G50" si="75">+F50+1</f>
         <v>3</v>
       </c>
       <c r="H50">
-        <f t="shared" ref="H50" si="74">+G50+1</f>
+        <f t="shared" ref="H50:I50" si="76">+G50+1</f>
         <v>4</v>
       </c>
       <c r="I50">
-        <f>+H50+1</f>
+        <f t="shared" si="76"/>
         <v>5</v>
+      </c>
+      <c r="J50">
+        <f>+I50+1</f>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
@@ -2274,26 +2326,30 @@
       </c>
       <c r="D51" s="2">
         <f>SUM(52:52)</f>
-        <v>6.3506212008470566</v>
+        <v>5.7228544768843275</v>
       </c>
       <c r="E51">
-        <v>1.05</v>
+        <v>0.25</v>
       </c>
       <c r="F51" s="3">
         <f>+E51*B50</f>
-        <v>1.1025</v>
+        <v>0.255</v>
       </c>
       <c r="G51" s="3">
         <f>+F51*B50</f>
-        <v>1.1576250000000001</v>
+        <v>0.2601</v>
       </c>
       <c r="H51" s="3">
         <f>+G51*B50</f>
-        <v>1.2155062500000002</v>
-      </c>
-      <c r="I51" s="6">
-        <f>H51/(D50+2%)</f>
-        <v>6.750899745072231</v>
+        <v>0.26530199999999998</v>
+      </c>
+      <c r="I51" s="3">
+        <f>+H51*B50</f>
+        <v>0.27060803999999999</v>
+      </c>
+      <c r="J51" s="6">
+        <f>I51/(D50+2%)</f>
+        <v>5.4121607999999997</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -2319,25 +2375,28 @@
     <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="E52" s="2">
         <f>-PV($D$50,E50,0,E51)</f>
-        <v>0.90513261916932974</v>
+        <v>0.24271844660194175</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" ref="F52:I52" si="75">-PV($D$50,F50,0,F51)</f>
-        <v>0.81926505828433083</v>
+        <f t="shared" ref="F52:H52" si="77">-PV($D$50,F50,0,F51)</f>
+        <v>0.24036195682910738</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="75"/>
-        <v>0.74154352799880996</v>
+        <f t="shared" si="77"/>
+        <v>0.23802834559775679</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" si="75"/>
-        <v>0.671195235725628</v>
+        <f t="shared" si="77"/>
+        <v>0.23571739078612811</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="75"/>
-        <v>3.2134847596689582</v>
-      </c>
-      <c r="J52" s="2"/>
+        <f t="shared" ref="I52" si="78">-PV($D$50,I50,0,I51)</f>
+        <v>0.23342887242898125</v>
+      </c>
+      <c r="J52" s="2">
+        <f>-PV($D$50,J50,0,J51)</f>
+        <v>4.5325994646404117</v>
+      </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -2363,291 +2422,1576 @@
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
     </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="7">
+        <f>D50</f>
+        <v>0.03</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f>+E54+1</f>
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ref="G54" si="79">+F54+1</f>
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ref="H54" si="80">+G54+1</f>
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54:J54" si="81">+H54+1</f>
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ref="J54" si="82">+I54+1</f>
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ref="K54" si="83">+J54+1</f>
+        <v>7</v>
+      </c>
+      <c r="L54">
+        <f t="shared" ref="L54" si="84">+K54+1</f>
+        <v>8</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ref="M54" si="85">+L54+1</f>
+        <v>9</v>
+      </c>
+      <c r="N54">
+        <f t="shared" ref="N54" si="86">+M54+1</f>
+        <v>10</v>
+      </c>
+      <c r="O54">
+        <f t="shared" ref="O54" si="87">+N54+1</f>
+        <v>11</v>
+      </c>
+      <c r="P54">
+        <f t="shared" ref="P54" si="88">+O54+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" ref="Q54" si="89">+P54+1</f>
+        <v>13</v>
+      </c>
+      <c r="R54">
+        <f t="shared" ref="R54" si="90">+Q54+1</f>
+        <v>14</v>
+      </c>
+      <c r="S54">
+        <f t="shared" ref="S54" si="91">+R54+1</f>
+        <v>15</v>
+      </c>
+      <c r="T54">
+        <f t="shared" ref="T54" si="92">+S54+1</f>
+        <v>16</v>
+      </c>
+      <c r="U54">
+        <f t="shared" ref="U54" si="93">+T54+1</f>
+        <v>17</v>
+      </c>
+      <c r="V54">
+        <f t="shared" ref="V54" si="94">+U54+1</f>
+        <v>18</v>
+      </c>
+      <c r="W54">
+        <f t="shared" ref="W54" si="95">+V54+1</f>
+        <v>19</v>
+      </c>
+      <c r="X54">
+        <f t="shared" ref="X54:Y54" si="96">+W54+1</f>
+        <v>20</v>
+      </c>
+      <c r="Y54">
+        <f>+X54+1</f>
+        <v>21</v>
+      </c>
+    </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B55" s="8" t="s">
+      <c r="C55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="2">
+        <f>SUM(56:56)</f>
+        <v>15.701779453379338</v>
+      </c>
+      <c r="E55">
+        <v>0.15</v>
+      </c>
+      <c r="F55" s="3">
+        <f>+E55*B54</f>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G55" s="3">
+        <f>+F55*B54</f>
+        <v>0.18150000000000002</v>
+      </c>
+      <c r="H55" s="3">
+        <f>+G55*B54</f>
+        <v>0.19965000000000005</v>
+      </c>
+      <c r="I55" s="3">
+        <f>+H55*B54</f>
+        <v>0.21961500000000006</v>
+      </c>
+      <c r="J55" s="3">
+        <f>+I55*B54</f>
+        <v>0.24157650000000008</v>
+      </c>
+      <c r="K55" s="3">
+        <f>+J55*B54</f>
+        <v>0.26573415000000011</v>
+      </c>
+      <c r="L55" s="3">
+        <f>+K55*B54</f>
+        <v>0.29230756500000016</v>
+      </c>
+      <c r="M55" s="3">
+        <f>+L55*B54</f>
+        <v>0.32153832150000022</v>
+      </c>
+      <c r="N55" s="3">
+        <f>+M55*B54</f>
+        <v>0.35369215365000028</v>
+      </c>
+      <c r="O55" s="3">
+        <f>+N55*B54</f>
+        <v>0.38906136901500032</v>
+      </c>
+      <c r="P55" s="3">
+        <f>+O55*B54</f>
+        <v>0.4279675059165004</v>
+      </c>
+      <c r="Q55" s="3">
+        <f>+P55*B54</f>
+        <v>0.47076425650815046</v>
+      </c>
+      <c r="R55" s="3">
+        <f>+Q55*B54</f>
+        <v>0.5178406821589655</v>
+      </c>
+      <c r="S55" s="3">
+        <f>+R55*B54</f>
+        <v>0.56962475037486215</v>
+      </c>
+      <c r="T55" s="3">
+        <f>+S55*B54</f>
+        <v>0.62658722541234846</v>
+      </c>
+      <c r="U55" s="3">
+        <f>+T55*B54</f>
+        <v>0.6892459479535834</v>
+      </c>
+      <c r="V55" s="3">
+        <f>+U55*B54</f>
+        <v>0.7581705427489418</v>
+      </c>
+      <c r="W55" s="3">
+        <f>+V55*B54</f>
+        <v>0.83398759702383607</v>
+      </c>
+      <c r="X55" s="3">
+        <f>+W55*B54</f>
+        <v>0.91738635672621971</v>
+      </c>
+      <c r="Y55" s="6">
+        <f>X55/(D54+2%)</f>
+        <v>18.347727134524394</v>
+      </c>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="6"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+      <c r="AH55" s="6"/>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="E56" s="2">
+        <f>-PV($D$50,E54,0,E55)</f>
+        <v>0.14563106796116504</v>
+      </c>
+      <c r="F56" s="2">
+        <f>-PV($D$50,F54,0,F55)</f>
+        <v>0.15552832500706948</v>
+      </c>
+      <c r="G56" s="2">
+        <f>-PV($D$50,G54,0,G55)</f>
+        <v>0.16609821117259849</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" ref="F56:Y56" si="97">-PV($D$50,H54,0,H55)</f>
+        <v>0.17738643911636734</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="97"/>
+        <v>0.18944182818252825</v>
+      </c>
+      <c r="J56" s="2">
+        <f>-PV($D$50,J54,0,J55)</f>
+        <v>0.20231651553473892</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="97"/>
+        <v>0.21606618163904157</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="97"/>
+        <v>0.23075029107082115</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" si="97"/>
+        <v>0.24643234968728475</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="97"/>
+        <v>0.26318017927768278</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="97"/>
+        <v>0.28106621087907868</v>
+      </c>
+      <c r="P56" s="2">
+        <f t="shared" si="97"/>
+        <v>0.30016779802620058</v>
+      </c>
+      <c r="Q56" s="2">
+        <f>-PV($D$50,Q54,0,Q55)</f>
+        <v>0.32056755129011716</v>
+      </c>
+      <c r="R56" s="2">
+        <f t="shared" si="97"/>
+        <v>0.3423536955525523</v>
+      </c>
+      <c r="S56" s="2">
+        <f t="shared" si="97"/>
+        <v>0.36562045156097822</v>
+      </c>
+      <c r="T56" s="2">
+        <f t="shared" si="97"/>
+        <v>0.39046844341463705</v>
+      </c>
+      <c r="U56" s="2">
+        <f t="shared" si="97"/>
+        <v>0.41700513374378723</v>
+      </c>
+      <c r="V56" s="2">
+        <f t="shared" si="97"/>
+        <v>0.44534528846423876</v>
+      </c>
+      <c r="W56" s="2">
+        <f t="shared" si="97"/>
+        <v>0.4756114731171483</v>
+      </c>
+      <c r="X56" s="2">
+        <f t="shared" si="97"/>
+        <v>0.50793458294064386</v>
+      </c>
+      <c r="Y56" s="2">
+        <f>-PV($D$50,Y54,0,Y55)</f>
+        <v>9.8628074357406579</v>
+      </c>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="E57" s="10">
+        <f>SUM(E56:M56)</f>
+        <v>1.729651209371615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C58" s="5">
         <f>+D51/D45-1</f>
-        <v>-8.953848833875333E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:34" ht="60" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+        <v>-0.43198658521102162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:34" ht="60" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B60">
+      <c r="B63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="7">
+        <v>9.3284000000000006E-2</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <f>+E63+1</f>
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ref="G63" si="98">+F63+1</f>
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ref="H63" si="99">+G63+1</f>
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ref="I63" si="100">+H63+1</f>
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ref="J63" si="101">+I63+1</f>
+        <v>6</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ref="K63" si="102">+J63+1</f>
+        <v>7</v>
+      </c>
+      <c r="L63">
+        <f t="shared" ref="L63" si="103">+K63+1</f>
+        <v>8</v>
+      </c>
+      <c r="M63">
+        <f>+L63+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C64" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <f>SUM(65:65)</f>
+        <v>23.385540721505137</v>
+      </c>
+      <c r="E64">
+        <v>1.54</v>
+      </c>
+      <c r="F64" s="3">
+        <f>+E64*B63</f>
+        <v>1.6940000000000002</v>
+      </c>
+      <c r="G64" s="3">
+        <f>+F64*B63</f>
+        <v>1.8634000000000004</v>
+      </c>
+      <c r="H64" s="3">
+        <f>+G64*B63</f>
+        <v>2.0497400000000008</v>
+      </c>
+      <c r="I64" s="3">
+        <f>+H64*B63</f>
+        <v>2.2547140000000012</v>
+      </c>
+      <c r="J64" s="3">
+        <f>+I64*B63</f>
+        <v>2.4801854000000016</v>
+      </c>
+      <c r="K64" s="3">
+        <f>+J64*B63</f>
+        <v>2.728203940000002</v>
+      </c>
+      <c r="L64" s="3">
+        <f>+K64*B63</f>
+        <v>3.0010243340000025</v>
+      </c>
+      <c r="M64" s="6">
+        <f>L64/(D63+2%)</f>
+        <v>26.491157921683577</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E65" s="2">
+        <f>-PV($D$63,E63,0,E64)</f>
+        <v>1.408600144152846</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" ref="F65:L65" si="104">-PV($D$63,F63,0,F64)</f>
+        <v>1.4172531186481563</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="104"/>
+        <v>1.4259592480206171</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="104"/>
+        <v>1.4347188587985182</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" si="104"/>
+        <v>1.4435322795159997</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="104"/>
+        <v>1.4523998407253744</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="104"/>
+        <v>1.4613218750095236</v>
+      </c>
+      <c r="L65" s="2">
+        <f t="shared" si="104"/>
+        <v>1.4702987169943731</v>
+      </c>
+      <c r="M65" s="2">
+        <f>-PV($D$63,M63,0,M64)</f>
+        <v>11.871456639639728</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <f>B63</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="7">
+        <v>8.6717000000000002E-2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <f>+E69+1</f>
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69:L69" si="105">+F69+1</f>
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="105"/>
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="105"/>
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="105"/>
+        <v>6</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="105"/>
+        <v>7</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="105"/>
+        <v>8</v>
+      </c>
+      <c r="M69">
+        <f>+L69+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C70" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="2">
+        <f>SUM(71:71)</f>
+        <v>25.138107016781504</v>
+      </c>
+      <c r="E70">
+        <v>1.54</v>
+      </c>
+      <c r="F70" s="3">
+        <f>+E70*B69</f>
+        <v>1.6940000000000002</v>
+      </c>
+      <c r="G70" s="3">
+        <f>+F70*B69</f>
+        <v>1.8634000000000004</v>
+      </c>
+      <c r="H70" s="3">
+        <f>+G70*B69</f>
+        <v>2.0497400000000008</v>
+      </c>
+      <c r="I70" s="3">
+        <f>+H70*B69</f>
+        <v>2.2547140000000012</v>
+      </c>
+      <c r="J70" s="3">
+        <f>+I70*B69</f>
+        <v>2.4801854000000016</v>
+      </c>
+      <c r="K70" s="3">
+        <f>+J70*B69</f>
+        <v>2.728203940000002</v>
+      </c>
+      <c r="L70" s="3">
+        <f>+K70*B69</f>
+        <v>3.0010243340000025</v>
+      </c>
+      <c r="M70" s="6">
+        <f>L70/(D69+2%)</f>
+        <v>28.121333377062719</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E71" s="2">
+        <f>-PV($D$69,E69,0,E70)</f>
+        <v>1.4171122748608884</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" ref="F71:G71" si="106">-PV($D$69,F69,0,F70)</f>
+        <v>1.4344337139724301</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="106"/>
+        <v>1.4519668739604457</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" ref="H71" si="107">-PV($D$69,H69,0,H70)</f>
+        <v>1.4697143427005286</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" ref="I71" si="108">-PV($D$69,I69,0,I70)</f>
+        <v>1.4876787397000157</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" ref="J71" si="109">-PV($D$69,J69,0,J70)</f>
+        <v>1.5058627164846206</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" ref="K71" si="110">-PV($D$69,K69,0,K70)</f>
+        <v>1.5242689569897985</v>
+      </c>
+      <c r="L71" s="2">
+        <f t="shared" ref="L71" si="111">-PV($D$69,L69,0,L70)</f>
+        <v>1.5429001779568907</v>
+      </c>
+      <c r="M71" s="2">
+        <f>-PV($D$69,M69,0,M70)</f>
+        <v>13.304169220155888</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B74" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="5">
+        <f>+D70/D64-1</f>
+        <v>7.4942303714393921E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:25" ht="60" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D60" s="7">
-        <v>8.3934999999999996E-2</v>
-      </c>
-      <c r="E60">
+      <c r="D79" s="7">
+        <v>9.3284000000000006E-2</v>
+      </c>
+      <c r="E79">
         <v>1</v>
       </c>
-      <c r="F60">
-        <f>+E60+1</f>
+      <c r="F79">
+        <f>+E79+1</f>
         <v>2</v>
       </c>
-      <c r="G60">
-        <f t="shared" ref="G60" si="76">+F60+1</f>
+      <c r="G79">
+        <f t="shared" ref="G79" si="112">+F79+1</f>
         <v>3</v>
       </c>
-      <c r="H60">
-        <f t="shared" ref="H60" si="77">+G60+1</f>
+      <c r="H79">
+        <f t="shared" ref="H79" si="113">+G79+1</f>
         <v>4</v>
       </c>
-      <c r="I60">
-        <f t="shared" ref="I60" si="78">+H60+1</f>
+      <c r="I79">
+        <f t="shared" ref="I79" si="114">+H79+1</f>
         <v>5</v>
       </c>
-      <c r="J60">
-        <f t="shared" ref="J60" si="79">+I60+1</f>
+      <c r="J79">
+        <f t="shared" ref="J79" si="115">+I79+1</f>
         <v>6</v>
       </c>
-      <c r="K60">
-        <f t="shared" ref="K60" si="80">+J60+1</f>
+      <c r="K79">
+        <f t="shared" ref="K79" si="116">+J79+1</f>
         <v>7</v>
       </c>
-      <c r="L60">
-        <f t="shared" ref="L60" si="81">+K60+1</f>
+      <c r="L79">
+        <f t="shared" ref="L79" si="117">+K79+1</f>
         <v>8</v>
       </c>
-      <c r="M60">
-        <f>+L60+1</f>
+      <c r="M79">
+        <f t="shared" ref="M79" si="118">+L79+1</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C61" s="8" t="s">
+      <c r="N79">
+        <f t="shared" ref="N79" si="119">+M79+1</f>
+        <v>10</v>
+      </c>
+      <c r="O79">
+        <f t="shared" ref="O79" si="120">+N79+1</f>
+        <v>11</v>
+      </c>
+      <c r="P79">
+        <f t="shared" ref="P79" si="121">+O79+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" ref="Q79" si="122">+P79+1</f>
+        <v>13</v>
+      </c>
+      <c r="R79">
+        <f t="shared" ref="R79" si="123">+Q79+1</f>
+        <v>14</v>
+      </c>
+      <c r="S79">
+        <f>+R79+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C80" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="2">
-        <f>SUM(62:62)</f>
-        <v>24.785797015354326</v>
-      </c>
-      <c r="E61">
+      <c r="D80" s="2">
+        <f>SUM(81:81)</f>
+        <v>37.276913034688853</v>
+      </c>
+      <c r="E80">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F61" s="3">
-        <f>+E61*B60</f>
+      <c r="F80" s="3">
+        <f>+E80*B79</f>
         <v>1.3224999999999998</v>
       </c>
-      <c r="G61" s="3">
-        <f>+F61*B60</f>
+      <c r="G80" s="3">
+        <f>+F80*B79</f>
         <v>1.5208749999999995</v>
       </c>
-      <c r="H61" s="3">
-        <f>+G61*B60</f>
+      <c r="H80" s="3">
+        <f>+G80*B79</f>
         <v>1.7490062499999994</v>
       </c>
-      <c r="I61" s="3">
-        <f>+H61*B60</f>
+      <c r="I80" s="3">
+        <f>+H80*B79</f>
         <v>2.0113571874999994</v>
       </c>
-      <c r="J61" s="3">
-        <f>+I61*B60</f>
+      <c r="J80" s="3">
+        <f>+I80*B79</f>
         <v>2.3130607656249991</v>
       </c>
-      <c r="K61" s="3">
-        <f>+J61*B60</f>
+      <c r="K80" s="3">
+        <f>+J80*B79</f>
         <v>2.6600198804687487</v>
       </c>
-      <c r="L61" s="3">
-        <f>+K61*B60</f>
+      <c r="L80" s="3">
+        <f>+K80*B79</f>
         <v>3.0590228625390607</v>
       </c>
-      <c r="M61" s="6">
-        <f>L61/(D60+2%)</f>
-        <v>29.432076418329348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="E62" s="2">
-        <f>-PV($D$60,E60,0,E61)</f>
-        <v>1.06094922666027</v>
-      </c>
-      <c r="F62" s="2">
-        <f t="shared" ref="F62:L62" si="82">-PV($D$60,F60,0,F61)</f>
-        <v>1.125613261551025</v>
-      </c>
-      <c r="G62" s="2">
-        <f t="shared" si="82"/>
-        <v>1.1942185193611041</v>
-      </c>
-      <c r="H62" s="2">
-        <f t="shared" si="82"/>
-        <v>1.2670052145795363</v>
-      </c>
-      <c r="I62" s="2">
-        <f t="shared" si="82"/>
-        <v>1.3442282025826886</v>
-      </c>
-      <c r="J62" s="2">
-        <f t="shared" si="82"/>
-        <v>1.4261578719850281</v>
-      </c>
-      <c r="K62" s="2">
-        <f t="shared" si="82"/>
-        <v>1.5130810913779722</v>
-      </c>
-      <c r="L62" s="2">
-        <f t="shared" si="82"/>
-        <v>1.6053022137717368</v>
-      </c>
-      <c r="M62" s="2">
-        <f>-PV($D$60,M60,0,M61)</f>
-        <v>14.249241413484967</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
+      <c r="M80" s="3">
+        <f>+L80*B79</f>
+        <v>3.5178762919199196</v>
+      </c>
+      <c r="N80" s="3">
+        <f>+M80*B79</f>
+        <v>4.0455577357079076</v>
+      </c>
+      <c r="O80" s="3">
+        <f>+N80*B79</f>
+        <v>4.6523913960640932</v>
+      </c>
+      <c r="P80" s="3">
+        <f>+O80*B79</f>
+        <v>5.3502501054737071</v>
+      </c>
+      <c r="Q80" s="3">
+        <f>+P80*B79</f>
+        <v>6.1527876212947623</v>
+      </c>
+      <c r="R80" s="3">
+        <f>+Q80*B79</f>
+        <v>7.0757057644889763</v>
+      </c>
+      <c r="S80" s="6">
+        <f>R80/(D79+2%)</f>
+        <v>62.459886343075596</v>
+      </c>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="Y80" s="3"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E81" s="2">
+        <f>-PV($D$63,E79,0,E80)</f>
+        <v>1.0518767310232291</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" ref="F81:R81" si="124">-PV($D$63,F79,0,F80)</f>
+        <v>1.1064446572681146</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="124"/>
+        <v>1.1638433891453015</v>
+      </c>
+      <c r="H81" s="2">
+        <f t="shared" si="124"/>
+        <v>1.2242197795971557</v>
+      </c>
+      <c r="I81" s="2">
+        <f t="shared" si="124"/>
+        <v>1.2877282998166342</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" si="124"/>
+        <v>1.3545314344572219</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" si="124"/>
+        <v>1.4248000973450681</v>
+      </c>
+      <c r="L81" s="2">
+        <f t="shared" si="124"/>
+        <v>1.4987140687569085</v>
+      </c>
+      <c r="M81" s="2">
+        <f t="shared" si="124"/>
+        <v>1.5764624553825399</v>
+      </c>
+      <c r="N81" s="2">
+        <f t="shared" si="124"/>
+        <v>1.6582441741486396</v>
+      </c>
+      <c r="O81" s="2">
+        <f t="shared" si="124"/>
+        <v>1.7442684611417854</v>
+      </c>
+      <c r="P81" s="2">
+        <f t="shared" si="124"/>
+        <v>1.8347554069327392</v>
+      </c>
+      <c r="Q81" s="2">
+        <f t="shared" si="124"/>
+        <v>1.9299365196716043</v>
+      </c>
+      <c r="R81" s="2">
+        <f t="shared" si="124"/>
+        <v>2.0300553173945151</v>
+      </c>
+      <c r="S81" s="2">
+        <f>-PV($D$79,S79,0,S80)</f>
+        <v>16.391032242607395</v>
+      </c>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="Y81" s="2"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B66">
-        <f>B60</f>
+      <c r="B85">
+        <f>B79</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="7">
-        <v>9.6665000000000001E-2</v>
-      </c>
-      <c r="E66">
+      <c r="D85" s="7">
+        <v>8.6717000000000002E-2</v>
+      </c>
+      <c r="E85">
         <v>1</v>
       </c>
-      <c r="F66">
-        <f>+E66+1</f>
+      <c r="F85">
+        <f>+E85+1</f>
         <v>2</v>
       </c>
-      <c r="G66">
-        <f t="shared" ref="G66:L66" si="83">+F66+1</f>
+      <c r="G85">
+        <f t="shared" ref="G85" si="125">+F85+1</f>
         <v>3</v>
       </c>
-      <c r="H66">
-        <f t="shared" si="83"/>
+      <c r="H85">
+        <f t="shared" ref="H85" si="126">+G85+1</f>
         <v>4</v>
       </c>
-      <c r="I66">
-        <f t="shared" si="83"/>
+      <c r="I85">
+        <f t="shared" ref="I85" si="127">+H85+1</f>
         <v>5</v>
       </c>
-      <c r="J66">
-        <f t="shared" si="83"/>
+      <c r="J85">
+        <f t="shared" ref="J85" si="128">+I85+1</f>
         <v>6</v>
       </c>
-      <c r="K66">
-        <f t="shared" si="83"/>
+      <c r="K85">
+        <f t="shared" ref="K85" si="129">+J85+1</f>
         <v>7</v>
       </c>
-      <c r="L66">
-        <f t="shared" si="83"/>
+      <c r="L85">
+        <f t="shared" ref="L85" si="130">+K85+1</f>
         <v>8</v>
       </c>
-      <c r="M66">
-        <f>+L66+1</f>
+      <c r="M85">
+        <f t="shared" ref="M85" si="131">+L85+1</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C67" s="8" t="s">
+      <c r="N85">
+        <f t="shared" ref="N85" si="132">+M85+1</f>
+        <v>10</v>
+      </c>
+      <c r="O85">
+        <f t="shared" ref="O85" si="133">+N85+1</f>
+        <v>11</v>
+      </c>
+      <c r="P85">
+        <f t="shared" ref="P85" si="134">+O85+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" ref="Q85" si="135">+P85+1</f>
+        <v>13</v>
+      </c>
+      <c r="R85">
+        <f t="shared" ref="R85" si="136">+Q85+1</f>
         <v>14</v>
       </c>
-      <c r="D67" s="2">
-        <f>SUM(68:68)</f>
-        <v>21.392879578540015</v>
-      </c>
-      <c r="E67">
+      <c r="S85">
+        <f>+R85+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C86" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="2">
+        <f>SUM(87:87)</f>
+        <v>39.931243252978035</v>
+      </c>
+      <c r="E86">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F67" s="3">
-        <f>+E67*B66</f>
+      <c r="F86" s="3">
+        <f>+E86*B85</f>
         <v>1.3224999999999998</v>
       </c>
-      <c r="G67" s="3">
-        <f>+F67*B66</f>
+      <c r="G86" s="3">
+        <f>+F86*B85</f>
         <v>1.5208749999999995</v>
       </c>
-      <c r="H67" s="3">
-        <f>+G67*B66</f>
+      <c r="H86" s="3">
+        <f>+G86*B85</f>
         <v>1.7490062499999994</v>
       </c>
-      <c r="I67" s="3">
-        <f>+H67*B66</f>
+      <c r="I86" s="3">
+        <f>+H86*B85</f>
         <v>2.0113571874999994</v>
       </c>
-      <c r="J67" s="3">
-        <f>+I67*B66</f>
+      <c r="J86" s="3">
+        <f>+I86*B85</f>
         <v>2.3130607656249991</v>
       </c>
-      <c r="K67" s="3">
-        <f>+J67*B66</f>
+      <c r="K86" s="3">
+        <f>+J86*B85</f>
         <v>2.6600198804687487</v>
       </c>
-      <c r="L67" s="3">
-        <f>+K67*B66</f>
+      <c r="L86" s="3">
+        <f>+K86*B85</f>
         <v>3.0590228625390607</v>
       </c>
-      <c r="M67" s="6">
-        <f>L67/(D66+2%)</f>
-        <v>26.220570544199724</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E68" s="2">
-        <f>-PV($D$66,E66,0,E67)</f>
-        <v>1.0486338125133927</v>
-      </c>
-      <c r="F68" s="2">
-        <f t="shared" ref="F68:G68" si="84">-PV($D$66,F66,0,F67)</f>
-        <v>1.0996328727463736</v>
-      </c>
-      <c r="G68" s="2">
-        <f t="shared" si="84"/>
-        <v>1.1531122117130841</v>
-      </c>
-      <c r="H68" s="2">
-        <f t="shared" ref="H68" si="85">-PV($D$66,H66,0,H67)</f>
-        <v>1.2091924548244422</v>
-      </c>
-      <c r="I68" s="2">
-        <f t="shared" ref="I68" si="86">-PV($D$66,I66,0,I67)</f>
-        <v>1.2680000939649831</v>
-      </c>
-      <c r="J68" s="2">
-        <f t="shared" ref="J68" si="87">-PV($D$66,J66,0,J67)</f>
-        <v>1.3296677728018409</v>
-      </c>
-      <c r="K68" s="2">
-        <f t="shared" ref="K68" si="88">-PV($D$66,K66,0,K67)</f>
-        <v>1.3943345859693863</v>
-      </c>
-      <c r="L68" s="2">
-        <f t="shared" ref="L68" si="89">-PV($D$66,L66,0,L67)</f>
-        <v>1.4621463928043605</v>
-      </c>
-      <c r="M68" s="2">
-        <f>-PV($D$66,M66,0,M67)</f>
-        <v>11.428159381202152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B71" s="8" t="s">
+      <c r="M86" s="3">
+        <f>+L86*B85</f>
+        <v>3.5178762919199196</v>
+      </c>
+      <c r="N86" s="3">
+        <f>+M86*B85</f>
+        <v>4.0455577357079076</v>
+      </c>
+      <c r="O86" s="3">
+        <f>+N86*B85</f>
+        <v>4.6523913960640932</v>
+      </c>
+      <c r="P86" s="3">
+        <f>+O86*B85</f>
+        <v>5.3502501054737071</v>
+      </c>
+      <c r="Q86" s="3">
+        <f>+P86*B85</f>
+        <v>6.1527876212947623</v>
+      </c>
+      <c r="R86" s="3">
+        <f>+Q86*B85</f>
+        <v>7.0757057644889763</v>
+      </c>
+      <c r="S86" s="6">
+        <f>R86/(D85+2%)</f>
+        <v>66.303454599445033</v>
+      </c>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="6"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E87" s="2">
+        <f>-PV($D$63,E85,0,E86)</f>
+        <v>1.0518767310232291</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" ref="F87:R87" si="137">-PV($D$63,F85,0,F86)</f>
+        <v>1.1064446572681146</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="137"/>
+        <v>1.1638433891453015</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="137"/>
+        <v>1.2242197795971557</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" si="137"/>
+        <v>1.2877282998166342</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="137"/>
+        <v>1.3545314344572219</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="137"/>
+        <v>1.4248000973450681</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="137"/>
+        <v>1.4987140687569085</v>
+      </c>
+      <c r="M87" s="2">
+        <f t="shared" si="137"/>
+        <v>1.5764624553825399</v>
+      </c>
+      <c r="N87" s="2">
+        <f t="shared" si="137"/>
+        <v>1.6582441741486396</v>
+      </c>
+      <c r="O87" s="2">
+        <f t="shared" si="137"/>
+        <v>1.7442684611417854</v>
+      </c>
+      <c r="P87" s="2">
+        <f t="shared" si="137"/>
+        <v>1.8347554069327392</v>
+      </c>
+      <c r="Q87" s="2">
+        <f t="shared" si="137"/>
+        <v>1.9299365196716043</v>
+      </c>
+      <c r="R87" s="2">
+        <f t="shared" si="137"/>
+        <v>2.0300553173945151</v>
+      </c>
+      <c r="S87" s="2">
+        <f>-PV($D$85,S85,0,S86)</f>
+        <v>19.045362460896573</v>
+      </c>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B90" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="5">
-        <f>+D67/D61-1</f>
-        <v>-0.1368895837689813</v>
+      <c r="C90" s="5">
+        <f>+D86/D80-1</f>
+        <v>7.1205741092861929E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:25" ht="60" x14ac:dyDescent="0.2">
+      <c r="A94" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A95" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="7">
+        <v>9.3284000000000006E-2</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <f>+E95+1</f>
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <f t="shared" ref="G95" si="138">+F95+1</f>
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ref="H95" si="139">+G95+1</f>
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ref="I95" si="140">+H95+1</f>
+        <v>5</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ref="J95" si="141">+I95+1</f>
+        <v>6</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ref="K95" si="142">+J95+1</f>
+        <v>7</v>
+      </c>
+      <c r="L95">
+        <f t="shared" ref="L95" si="143">+K95+1</f>
+        <v>8</v>
+      </c>
+      <c r="M95">
+        <f t="shared" ref="M95" si="144">+L95+1</f>
+        <v>9</v>
+      </c>
+      <c r="N95">
+        <f t="shared" ref="N95" si="145">+M95+1</f>
+        <v>10</v>
+      </c>
+      <c r="O95">
+        <f t="shared" ref="O95" si="146">+N95+1</f>
+        <v>11</v>
+      </c>
+      <c r="P95">
+        <f t="shared" ref="P95" si="147">+O95+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" ref="Q95" si="148">+P95+1</f>
+        <v>13</v>
+      </c>
+      <c r="R95">
+        <f t="shared" ref="R95" si="149">+Q95+1</f>
+        <v>14</v>
+      </c>
+      <c r="S95">
+        <f t="shared" ref="S95" si="150">+R95+1</f>
+        <v>15</v>
+      </c>
+      <c r="T95">
+        <f t="shared" ref="T95" si="151">+S95+1</f>
+        <v>16</v>
+      </c>
+      <c r="U95">
+        <f t="shared" ref="U95" si="152">+T95+1</f>
+        <v>17</v>
+      </c>
+      <c r="V95">
+        <f t="shared" ref="V95" si="153">+U95+1</f>
+        <v>18</v>
+      </c>
+      <c r="W95">
+        <f t="shared" ref="W95" si="154">+V95+1</f>
+        <v>19</v>
+      </c>
+      <c r="X95">
+        <f>+W95+1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C96" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2">
+        <f>SUM(97:97)</f>
+        <v>53.836648701422838</v>
+      </c>
+      <c r="E96">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F96" s="3">
+        <f>+E96*B95</f>
+        <v>1.3224999999999998</v>
+      </c>
+      <c r="G96" s="3">
+        <f>+F96*B95</f>
+        <v>1.5208749999999995</v>
+      </c>
+      <c r="H96" s="3">
+        <f>+G96*B95</f>
+        <v>1.7490062499999994</v>
+      </c>
+      <c r="I96" s="3">
+        <f>+H96*B95</f>
+        <v>2.0113571874999994</v>
+      </c>
+      <c r="J96" s="3">
+        <f>+I96*B95</f>
+        <v>2.3130607656249991</v>
+      </c>
+      <c r="K96" s="3">
+        <f>+J96*B95</f>
+        <v>2.6600198804687487</v>
+      </c>
+      <c r="L96" s="3">
+        <f>+K96*B95</f>
+        <v>3.0590228625390607</v>
+      </c>
+      <c r="M96" s="3">
+        <f>+L96*B95</f>
+        <v>3.5178762919199196</v>
+      </c>
+      <c r="N96" s="3">
+        <f>+M96*B95</f>
+        <v>4.0455577357079076</v>
+      </c>
+      <c r="O96" s="3">
+        <f>+N96*B95</f>
+        <v>4.6523913960640932</v>
+      </c>
+      <c r="P96" s="3">
+        <f>+O96*B95</f>
+        <v>5.3502501054737071</v>
+      </c>
+      <c r="Q96" s="3">
+        <f>+P96*B95</f>
+        <v>6.1527876212947623</v>
+      </c>
+      <c r="R96" s="3">
+        <f>+Q96*B95</f>
+        <v>7.0757057644889763</v>
+      </c>
+      <c r="S96" s="3">
+        <f>+R96*B95</f>
+        <v>8.1370616291623215</v>
+      </c>
+      <c r="T96" s="3">
+        <f>+S96*B95</f>
+        <v>9.3576208735366695</v>
+      </c>
+      <c r="U96" s="3">
+        <f>+T96*B95</f>
+        <v>10.761264004567169</v>
+      </c>
+      <c r="V96" s="3">
+        <f>+U96*B95</f>
+        <v>12.375453605252243</v>
+      </c>
+      <c r="W96" s="3">
+        <f>+V96*B95</f>
+        <v>14.231771646040078</v>
+      </c>
+      <c r="X96" s="6">
+        <f>W96/(D95+2%)</f>
+        <v>125.62914132657814</v>
+      </c>
+      <c r="Y96" s="3"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E97" s="2">
+        <f>-PV($D$63,E95,0,E96)</f>
+        <v>1.0518767310232291</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" ref="F97:L97" si="155">-PV($D$63,F95,0,F96)</f>
+        <v>1.1064446572681146</v>
+      </c>
+      <c r="G97" s="2">
+        <f t="shared" si="155"/>
+        <v>1.1638433891453015</v>
+      </c>
+      <c r="H97" s="2">
+        <f t="shared" si="155"/>
+        <v>1.2242197795971557</v>
+      </c>
+      <c r="I97" s="2">
+        <f t="shared" si="155"/>
+        <v>1.2877282998166342</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="155"/>
+        <v>1.3545314344572219</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="155"/>
+        <v>1.4248000973450681</v>
+      </c>
+      <c r="L97" s="2">
+        <f t="shared" si="155"/>
+        <v>1.4987140687569085</v>
+      </c>
+      <c r="M97" s="2">
+        <f t="shared" ref="M97:W97" si="156">-PV($D$63,M95,0,M96)</f>
+        <v>1.5764624553825399</v>
+      </c>
+      <c r="N97" s="2">
+        <f t="shared" si="156"/>
+        <v>1.6582441741486396</v>
+      </c>
+      <c r="O97" s="2">
+        <f t="shared" si="156"/>
+        <v>1.7442684611417854</v>
+      </c>
+      <c r="P97" s="2">
+        <f t="shared" si="156"/>
+        <v>1.8347554069327392</v>
+      </c>
+      <c r="Q97" s="2">
+        <f t="shared" si="156"/>
+        <v>1.9299365196716043</v>
+      </c>
+      <c r="R97" s="2">
+        <f t="shared" si="156"/>
+        <v>2.0300553173945151</v>
+      </c>
+      <c r="S97" s="2">
+        <f t="shared" si="156"/>
+        <v>2.1353679510572663</v>
+      </c>
+      <c r="T97" s="2">
+        <f t="shared" si="156"/>
+        <v>2.2461438598898877</v>
+      </c>
+      <c r="U97" s="2">
+        <f t="shared" si="156"/>
+        <v>2.3626664607488728</v>
+      </c>
+      <c r="V97" s="2">
+        <f t="shared" si="156"/>
+        <v>2.4852338732307468</v>
+      </c>
+      <c r="W97" s="2">
+        <f t="shared" si="156"/>
+        <v>2.6141596824021565</v>
+      </c>
+      <c r="X97" s="2">
+        <f>-PV($D$95,X95,0,X96)</f>
+        <v>21.10719608201245</v>
+      </c>
+      <c r="Y97" s="2"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A101" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101">
+        <f>B95</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="7">
+        <v>8.6717000000000002E-2</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <f>+E101+1</f>
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ref="G101" si="157">+F101+1</f>
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <f t="shared" ref="H101" si="158">+G101+1</f>
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <f t="shared" ref="I101" si="159">+H101+1</f>
+        <v>5</v>
+      </c>
+      <c r="J101">
+        <f t="shared" ref="J101" si="160">+I101+1</f>
+        <v>6</v>
+      </c>
+      <c r="K101">
+        <f t="shared" ref="K101" si="161">+J101+1</f>
+        <v>7</v>
+      </c>
+      <c r="L101">
+        <f t="shared" ref="L101" si="162">+K101+1</f>
+        <v>8</v>
+      </c>
+      <c r="M101">
+        <f t="shared" ref="M101" si="163">+L101+1</f>
+        <v>9</v>
+      </c>
+      <c r="N101">
+        <f t="shared" ref="N101" si="164">+M101+1</f>
+        <v>10</v>
+      </c>
+      <c r="O101">
+        <f t="shared" ref="O101" si="165">+N101+1</f>
+        <v>11</v>
+      </c>
+      <c r="P101">
+        <f t="shared" ref="P101" si="166">+O101+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" ref="Q101" si="167">+P101+1</f>
+        <v>13</v>
+      </c>
+      <c r="R101">
+        <f t="shared" ref="R101" si="168">+Q101+1</f>
+        <v>14</v>
+      </c>
+      <c r="S101">
+        <f t="shared" ref="S101" si="169">+R101+1</f>
+        <v>15</v>
+      </c>
+      <c r="T101">
+        <f t="shared" ref="T101" si="170">+S101+1</f>
+        <v>16</v>
+      </c>
+      <c r="U101">
+        <f t="shared" ref="U101" si="171">+T101+1</f>
+        <v>17</v>
+      </c>
+      <c r="V101">
+        <f t="shared" ref="V101" si="172">+U101+1</f>
+        <v>18</v>
+      </c>
+      <c r="W101">
+        <f t="shared" ref="W101" si="173">+V101+1</f>
+        <v>19</v>
+      </c>
+      <c r="X101">
+        <f>+W101+1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C102" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="2">
+        <f>SUM(103:103)</f>
+        <v>58.004742152552225</v>
+      </c>
+      <c r="E102">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F102" s="3">
+        <f>+E102*B101</f>
+        <v>1.3224999999999998</v>
+      </c>
+      <c r="G102" s="3">
+        <f>+F102*B101</f>
+        <v>1.5208749999999995</v>
+      </c>
+      <c r="H102" s="3">
+        <f>+G102*B101</f>
+        <v>1.7490062499999994</v>
+      </c>
+      <c r="I102" s="3">
+        <f>+H102*B101</f>
+        <v>2.0113571874999994</v>
+      </c>
+      <c r="J102" s="3">
+        <f>+I102*B101</f>
+        <v>2.3130607656249991</v>
+      </c>
+      <c r="K102" s="3">
+        <f>+J102*B101</f>
+        <v>2.6600198804687487</v>
+      </c>
+      <c r="L102" s="3">
+        <f>+K102*B101</f>
+        <v>3.0590228625390607</v>
+      </c>
+      <c r="M102" s="3">
+        <f>+L102*B101</f>
+        <v>3.5178762919199196</v>
+      </c>
+      <c r="N102" s="3">
+        <f>+M102*B101</f>
+        <v>4.0455577357079076</v>
+      </c>
+      <c r="O102" s="3">
+        <f>+N102*B101</f>
+        <v>4.6523913960640932</v>
+      </c>
+      <c r="P102" s="3">
+        <f>+O102*B101</f>
+        <v>5.3502501054737071</v>
+      </c>
+      <c r="Q102" s="3">
+        <f>+P102*B101</f>
+        <v>6.1527876212947623</v>
+      </c>
+      <c r="R102" s="3">
+        <f>+Q102*B101</f>
+        <v>7.0757057644889763</v>
+      </c>
+      <c r="S102" s="3">
+        <f>+R102*B101</f>
+        <v>8.1370616291623215</v>
+      </c>
+      <c r="T102" s="3">
+        <f>+S102*B101</f>
+        <v>9.3576208735366695</v>
+      </c>
+      <c r="U102" s="3">
+        <f>+T102*B101</f>
+        <v>10.761264004567169</v>
+      </c>
+      <c r="V102" s="3">
+        <f>+U102*B101</f>
+        <v>12.375453605252243</v>
+      </c>
+      <c r="W102" s="3">
+        <f>+V102*B101</f>
+        <v>14.231771646040078</v>
+      </c>
+      <c r="X102" s="6">
+        <f>W102/(D101+2%)</f>
+        <v>133.35992996467365</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E103" s="2">
+        <f>-PV($D$63,E101,0,E102)</f>
+        <v>1.0518767310232291</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" ref="F103:W103" si="174">-PV($D$63,F101,0,F102)</f>
+        <v>1.1064446572681146</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" si="174"/>
+        <v>1.1638433891453015</v>
+      </c>
+      <c r="H103" s="2">
+        <f t="shared" si="174"/>
+        <v>1.2242197795971557</v>
+      </c>
+      <c r="I103" s="2">
+        <f t="shared" si="174"/>
+        <v>1.2877282998166342</v>
+      </c>
+      <c r="J103" s="2">
+        <f t="shared" si="174"/>
+        <v>1.3545314344572219</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="174"/>
+        <v>1.4248000973450681</v>
+      </c>
+      <c r="L103" s="2">
+        <f t="shared" si="174"/>
+        <v>1.4987140687569085</v>
+      </c>
+      <c r="M103" s="2">
+        <f t="shared" si="174"/>
+        <v>1.5764624553825399</v>
+      </c>
+      <c r="N103" s="2">
+        <f t="shared" si="174"/>
+        <v>1.6582441741486396</v>
+      </c>
+      <c r="O103" s="2">
+        <f t="shared" si="174"/>
+        <v>1.7442684611417854</v>
+      </c>
+      <c r="P103" s="2">
+        <f t="shared" si="174"/>
+        <v>1.8347554069327392</v>
+      </c>
+      <c r="Q103" s="2">
+        <f t="shared" si="174"/>
+        <v>1.9299365196716043</v>
+      </c>
+      <c r="R103" s="2">
+        <f t="shared" si="174"/>
+        <v>2.0300553173945151</v>
+      </c>
+      <c r="S103" s="2">
+        <f t="shared" si="174"/>
+        <v>2.1353679510572663</v>
+      </c>
+      <c r="T103" s="2">
+        <f t="shared" si="174"/>
+        <v>2.2461438598898877</v>
+      </c>
+      <c r="U103" s="2">
+        <f t="shared" si="174"/>
+        <v>2.3626664607488728</v>
+      </c>
+      <c r="V103" s="2">
+        <f t="shared" si="174"/>
+        <v>2.4852338732307468</v>
+      </c>
+      <c r="W103" s="2">
+        <f t="shared" si="174"/>
+        <v>2.6141596824021565</v>
+      </c>
+      <c r="X103" s="2">
+        <f>-PV($D$101,X101,0,X102)</f>
+        <v>25.275289533141841</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B106" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="5">
+        <f>+D102/D96-1</f>
+        <v>7.7421116500872245E-2</v>
       </c>
     </row>
   </sheetData>

--- a/投资心得/关于成长股的估值.xlsx
+++ b/投资心得/关于成长股的估值.xlsx
@@ -660,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AT106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
       <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
@@ -1179,7 +1179,7 @@
         <v>-0.94268476621417796</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ref="F10:AH10" si="6">-PV($D$8,F8,0,F9)</f>
+        <f t="shared" ref="F10:X10" si="6">-PV($D$8,F8,0,F9)</f>
         <v>-0.88865456845227941</v>
       </c>
       <c r="G10" s="2">
@@ -2452,7 +2452,7 @@
         <v>4</v>
       </c>
       <c r="I54">
-        <f t="shared" ref="I54:J54" si="81">+H54+1</f>
+        <f t="shared" ref="I54" si="81">+H54+1</f>
         <v>5</v>
       </c>
       <c r="J54">
@@ -2512,7 +2512,7 @@
         <v>19</v>
       </c>
       <c r="X54">
-        <f t="shared" ref="X54:Y54" si="96">+W54+1</f>
+        <f t="shared" ref="X54" si="96">+W54+1</f>
         <v>20</v>
       </c>
       <c r="Y54">
@@ -2634,7 +2634,7 @@
         <v>0.16609821117259849</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" ref="F56:Y56" si="97">-PV($D$50,H54,0,H55)</f>
+        <f t="shared" ref="H56:X56" si="97">-PV($D$50,H54,0,H55)</f>
         <v>0.17738643911636734</v>
       </c>
       <c r="I56" s="2">
